--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2428900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2668900</v>
+      </c>
+      <c r="F8" s="3">
         <v>2508800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2447800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2360300</v>
       </c>
-      <c r="G8" s="3">
-        <v>3375200</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>2472600</v>
+      </c>
+      <c r="J8" s="3">
         <v>2355600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2316000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2273500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3318100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3161100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3059500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2922900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3120900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1682800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1858300</v>
+      </c>
+      <c r="F9" s="3">
         <v>1747600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1680400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1608600</v>
       </c>
-      <c r="G9" s="3">
-        <v>2465300</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>1721600</v>
+      </c>
+      <c r="J9" s="3">
         <v>1633200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1597700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1554300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2417100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2325000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2220300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2100000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2261400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>746100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>810600</v>
+      </c>
+      <c r="F10" s="3">
         <v>761200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>767400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>751700</v>
       </c>
-      <c r="G10" s="3">
-        <v>909900</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>751000</v>
+      </c>
+      <c r="J10" s="3">
         <v>722400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>718300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>719200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>901000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>836100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>839200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>822900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>859500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +905,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +951,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,38 +1001,44 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>11900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>4600</v>
       </c>
-      <c r="G14" s="3">
-        <v>55500</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>54700</v>
+      </c>
+      <c r="J14" s="3">
         <v>54300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>17600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1007,13 +1046,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>16100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2255000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2472600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2321600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2285500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2187800</v>
       </c>
-      <c r="G17" s="3">
-        <v>3195600</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>2314600</v>
+      </c>
+      <c r="J17" s="3">
         <v>2232300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2158900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2111200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3076900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2947500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2848800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2729000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2907000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>196300</v>
+      </c>
+      <c r="F18" s="3">
         <v>187200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>162300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>172500</v>
       </c>
-      <c r="G18" s="3">
-        <v>179600</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>158000</v>
+      </c>
+      <c r="J18" s="3">
         <v>123300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>157100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>162300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>241200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>213600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>210700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>193900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>213900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,228 +1242,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>225800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>247500</v>
+      </c>
+      <c r="F21" s="3">
         <v>237800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>213600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>217100</v>
       </c>
-      <c r="G21" s="3">
-        <v>286700</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>197600</v>
+      </c>
+      <c r="J21" s="3">
         <v>162400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>195800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>200600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>296400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>266900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>263300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>243000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>260800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F22" s="3">
         <v>12400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>12800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>16300</v>
       </c>
-      <c r="G22" s="3">
-        <v>22300</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J22" s="3">
         <v>20400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>17200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>16900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>16600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>13400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>12200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>11400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>189500</v>
+      </c>
+      <c r="F23" s="3">
         <v>178600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>151700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>160500</v>
       </c>
-      <c r="G23" s="3">
-        <v>163800</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>139500</v>
+      </c>
+      <c r="J23" s="3">
         <v>106200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>143200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>148000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>228000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>204700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>203300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>186800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>207000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F24" s="3">
         <v>42000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>35900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>39500</v>
       </c>
-      <c r="G24" s="3">
-        <v>43100</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J24" s="3">
         <v>16600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>33900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>36100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>63300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>59300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>58300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>38600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>58900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>147300</v>
+      </c>
+      <c r="F26" s="3">
         <v>136600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>115900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>121000</v>
       </c>
-      <c r="G26" s="3">
-        <v>120700</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>107000</v>
+      </c>
+      <c r="J26" s="3">
         <v>89500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>109300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>111900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>164800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>145400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>145000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>148200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>148100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>330600</v>
+      </c>
+      <c r="F27" s="3">
         <v>134900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>116800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>118400</v>
       </c>
-      <c r="G27" s="3">
-        <v>121300</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>106100</v>
+      </c>
+      <c r="J27" s="3">
         <v>90800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>110600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>111500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>134400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>138000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>136100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>140700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>139200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,40 +1688,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F29" s="3">
         <v>5600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-2200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-8600</v>
       </c>
-      <c r="G29" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>26900</v>
+      </c>
+      <c r="J29" s="3">
         <v>30700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>30600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>28700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>329900</v>
+      </c>
+      <c r="F33" s="3">
         <v>140600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>114500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>109800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>133000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>121500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>141200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>140200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>138000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>136100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>140700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>139200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>329900</v>
+      </c>
+      <c r="F35" s="3">
         <v>140600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>114500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>109800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>133000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>121500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>141200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>140200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>138000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>136100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>140700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>139200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,52 +2137,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>617400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>106100</v>
+      </c>
+      <c r="F41" s="3">
         <v>75300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>84900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>88100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>56900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>119700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>111300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>99200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>174700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>79900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>74700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>62900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>62400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,316 +2233,364 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1198700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1246200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1278900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1203900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1193100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1168800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1627600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1561100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1576400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1522800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1544600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1409100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1362800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1254100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1328400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1428800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1356900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1367500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1370400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1415500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1932900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1930200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2015100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1933800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1692300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1567200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1624000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1665800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>474600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>445400</v>
+      </c>
+      <c r="F45" s="3">
         <v>404700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>452300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>457600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1534000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>513700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>459300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>430100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>454800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>465800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>412900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>342600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>360500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3619100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3226500</v>
+      </c>
+      <c r="F46" s="3">
         <v>3115700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3108700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3109100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4175200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4194000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4061900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4120800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4086000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3782500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3463800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3392300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3342800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>327900</v>
+      </c>
+      <c r="F47" s="3">
         <v>385700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>389600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>404000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>420400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>518400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>510500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>449700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>432000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>450800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>472900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>458000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>442800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>543200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>561300</v>
+      </c>
+      <c r="F48" s="3">
         <v>551200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>551500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>563500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>314200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>374100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>368600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>377000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>375000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>361700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>351400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>336500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>333900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3025400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3035400</v>
+      </c>
+      <c r="F49" s="3">
         <v>3044300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3062400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3068200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2457100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3303900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2868800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2967300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2971000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2891700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2809400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2657900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2640900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,13 +2683,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2465,22 +2704,22 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2494,8 +2733,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7519200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7151100</v>
+      </c>
+      <c r="F54" s="3">
         <v>7097100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7112300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7144900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8500500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8390300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7809800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7914900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7864000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7486700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7097500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6844600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6760400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,272 +2877,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>780900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>880300</v>
+      </c>
+      <c r="F57" s="3">
         <v>854700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>745600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>695200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>785800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1136100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1117900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1020700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1153000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1029100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>882700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>843800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1007200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>491400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>133800</v>
+      </c>
+      <c r="F58" s="3">
         <v>217000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>251900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>309000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>959700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1157400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1191800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>968300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>758300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>649100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>594700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>690300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>503400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>933600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1024300</v>
+      </c>
+      <c r="F59" s="3">
         <v>837000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>827700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>874500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1473300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>936300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>843200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>867200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>917700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>758900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>752600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>751300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>810000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2205800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2038400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1908700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1825300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1878800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3218800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3229800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3152900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2856300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2829000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2437100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2229900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2285400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2320600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>865800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>622900</v>
+      </c>
+      <c r="F61" s="3">
         <v>872200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>973100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>973500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>980300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1000300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>985400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1000500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>907800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>907600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>807600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>708400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>715500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>569600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>572400</v>
+      </c>
+      <c r="F62" s="3">
         <v>573500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>580000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>591200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>539800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>461000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>455600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>476100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>470700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>384000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>378200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>336000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>315900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4544600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4153100</v>
+      </c>
+      <c r="F66" s="3">
         <v>4267600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4285100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4347900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5539200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5417200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4896200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5012900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5052500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4475000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4171200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4057400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3967300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3183200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3116200</v>
+      </c>
+      <c r="F72" s="3">
         <v>2957900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2900400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2859200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3208600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3191300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3123400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2998300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2940000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3164500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3135000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3068200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2981800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2974600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2998000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2829500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2827300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2796900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2961300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2973100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2913500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2902000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2811500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3011600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2926300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2787200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2793100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>329900</v>
+      </c>
+      <c r="F81" s="3">
         <v>140600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>114500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>109800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>133000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>121500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>141200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>140200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>138000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>136100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>140700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>139200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F83" s="3">
         <v>46900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>49100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>40300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>52500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>51500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>51500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>52100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>51800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>48700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>47800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>44700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>44000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>292600</v>
+      </c>
+      <c r="F89" s="3">
         <v>232000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>163200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-12700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>294000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>173900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>287800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-70900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>238000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>131400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>228700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-52600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>264500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-18200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-14800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-15900</v>
       </c>
-      <c r="G91" s="3">
-        <v>-41300</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-19100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-16600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-13600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-26200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-18400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-19700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-17300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-51300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>269000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-55800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-39000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-598600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-46600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-71700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-39500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-35200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-21500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-129400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-156700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-34700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-136600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4808,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>491900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-536800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-189800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-121600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>632100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-285300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-96200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-250000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>27800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-128600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-68200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>83700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-129100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F101" s="3">
         <v>3900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-5800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>10300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>13800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>6900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-12600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>511300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>30800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-9700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>31200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-39500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>12100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-75400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>94800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>11800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-13800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1684400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2428900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2668900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2508800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2447800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2360300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2472600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2355600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2316000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2273500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3318100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3161100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3059500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2922900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3120900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1230100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1682800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1858300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1747600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1680400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1608600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1721600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1633200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1597700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1554300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2417100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2325000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2220300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2100000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2261400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>454300</v>
+      </c>
+      <c r="E10" s="3">
         <v>746100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>810600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>761200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>767400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>751700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>751000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>722400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>718300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>719200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>901000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>836100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>839200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>822900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>859500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,41 +1024,44 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E14" s="3">
         <v>4800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>54700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>54300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1052,13 +1072,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>16100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1691800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2255000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2472600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2321600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2285500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2187800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2314600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2232300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2158900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2111200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3076900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2947500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2848800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2729000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2907000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E18" s="3">
         <v>173900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>196300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>187200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>162300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>172500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>158000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>123300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>157100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>162300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>241200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>213600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>210700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>193900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>213900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,258 +1277,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3300</v>
       </c>
       <c r="K20" s="3">
         <v>3300</v>
       </c>
       <c r="L20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E21" s="3">
         <v>225800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>247500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>237800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>213600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>217100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>197600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>162400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>195800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>296400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>266900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>263300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>243000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>260800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E22" s="3">
         <v>7800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>21400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E23" s="3">
         <v>169000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>189500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>178600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>151700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>160500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>139500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>106200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>143200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>148000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>228000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>204700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>203300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>186800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>207000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>37900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>42200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>42000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>39500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>33900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>63300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>59300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E26" s="3">
         <v>131100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>147300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>136600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>115900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>121000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>107000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>89500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>109300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>111900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>164800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>145400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>145000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>148200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>148100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E27" s="3">
         <v>130500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>330600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>134900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>116800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>118400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>106100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>90800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>110600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>111500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>134400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>138000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>136100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>140700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>139200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,43 +1752,46 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>600</v>
+      </c>
+      <c r="E29" s="3">
         <v>-300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>5600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-2200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-8600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>26900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>30700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>30600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>28700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-3300</v>
       </c>
       <c r="K32" s="3">
         <v>-3300</v>
       </c>
       <c r="L32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E33" s="3">
         <v>130300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>329900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>140600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>114500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>109800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>133000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>121500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>141200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>140200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>138000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>136100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>140700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>139200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E35" s="3">
         <v>130300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>329900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>140600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>114500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>109800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>133000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>121500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>141200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>140200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>138000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>136100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>140700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>139200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>296100</v>
+      </c>
+      <c r="E41" s="3">
         <v>617400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>106100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>75300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>88100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>119700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>111300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>99200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>174700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>74700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>62900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>62400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,358 +2329,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1101200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1198700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1246200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1278900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1203900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1193100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1168800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1627600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1561100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1576400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1522800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1544600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1409100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1362800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1254100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1406700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1328400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1428800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1356900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1367500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1370400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1415500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1932900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1930200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2015100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1933800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1692300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1567200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1624000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1665800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>605200</v>
+      </c>
+      <c r="E45" s="3">
         <v>474600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>445400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>404700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>452300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>457600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1534000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>513700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>459300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>430100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>454800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>465800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>412900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>342600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>360500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3409200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3619100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3226500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3115700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3108700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3109100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4175200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4194000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4061900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4120800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4086000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3782500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3463800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3392300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3342800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E47" s="3">
         <v>331600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>327900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>385700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>389600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>404000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>420400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>518400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>510500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>449700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>432000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>450800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>472900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>458000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>442800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>547400</v>
+      </c>
+      <c r="E48" s="3">
         <v>543200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>561300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>551200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>551500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>563500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>314200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>374100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>368600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>377000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>375000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>361700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>351400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>336500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>333900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2999000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3025400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3035400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3044300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3062400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3068200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2457100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3303900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2868800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2967300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2971000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2891700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2809400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2657900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2640900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,16 +2806,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2710,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2721,8 +2841,8 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7318100</v>
+      </c>
+      <c r="E54" s="3">
         <v>7519200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7151100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7097100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7112300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7144900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8500500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8390300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7809800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7914900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7864000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7486700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7097500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6844600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6760400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,308 +3009,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>735000</v>
+      </c>
+      <c r="E57" s="3">
         <v>780900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>880300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>854700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>745600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>695200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>785800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1136100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1117900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1020700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1153000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1029100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>882700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>843800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1007200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>612800</v>
+      </c>
+      <c r="E58" s="3">
         <v>491400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>133800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>217000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>251900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>309000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>959700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1157400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1191800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>968300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>758300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>649100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>594700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>690300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>503400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>959500</v>
+      </c>
+      <c r="E59" s="3">
         <v>933600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1024300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>837000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>827700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>874500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1473300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>936300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>843200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>867200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>917700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>758900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>752600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>751300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>810000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2307200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2205800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2038400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1908700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1825300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1878800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3218800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3229800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3152900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2856300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2829000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2437100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2229900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2285400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2320600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>515800</v>
+      </c>
+      <c r="E61" s="3">
         <v>865800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>622900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>872200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>973100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>973500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>980300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1000300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>985400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>907800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>907600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>807600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>708400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>715500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>594300</v>
+      </c>
+      <c r="E62" s="3">
         <v>569600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>572400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>573500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>580000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>591200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>539800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>461000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>455600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>476100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>470700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>384000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>378200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>336000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>315900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4327000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4544600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4153100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4267600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4285100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4347900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5539200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5417200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4896200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5012900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5052500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4475000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4171200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4057400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3967300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3172400</v>
+      </c>
+      <c r="E72" s="3">
         <v>3183200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3116200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2957900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2900400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2859200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3208600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3191300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3123400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2998300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2940000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3164500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3135000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3068200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2981800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2991100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2974600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2998000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2829500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2827300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2796900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2961300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2973100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2913500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2902000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2811500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3011600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2926300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2787200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2793100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E81" s="3">
         <v>130300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>329900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>140600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>114500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>109800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>133000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>121500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>141200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>140200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>138000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>136100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>140700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>139200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E83" s="3">
         <v>49000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>48700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>46900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>40300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>52500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>51500</v>
       </c>
       <c r="K83" s="3">
         <v>51500</v>
       </c>
       <c r="L83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="M83" s="3">
         <v>52100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>51800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>44700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>44000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="E89" s="3">
         <v>90500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>292600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>232000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>163200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>294000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>173900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>287800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-70900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>238000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>131400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>228700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>264500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-51300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>269000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-39000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-598600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-71700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-129400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-156700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-136600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-230400</v>
+      </c>
+      <c r="E100" s="3">
         <v>491900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-536800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-189800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-121600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>632100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-285300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-96200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-250000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-128600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-68200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>83700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-129100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>10300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-321300</v>
+      </c>
+      <c r="E102" s="3">
         <v>511300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>31200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-75400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>94800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2840100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1684400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2428900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2668900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2508800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2447800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2360300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2472600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2355600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2316000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2273500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3318100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3161100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3059500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2922900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3120900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2085800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1230100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1682800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1858300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1747600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1680400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1608600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1721600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1633200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1597700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1554300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2417100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2325000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2220300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2100000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2261400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>754300</v>
+      </c>
+      <c r="E10" s="3">
         <v>454300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>746100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>810600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>761200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>767400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>751700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>751000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>722400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>718300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>719200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>901000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>836100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>839200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>822900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>859500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,44 +1044,47 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>15900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>54700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>54300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1075,13 +1095,16 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>16100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2652500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1691800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2255000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2472600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2321600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2285500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2187800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2314600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2232300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2158900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2111200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3076900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2947500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2848800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2729000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2907000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>173900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>196300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>187200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>162300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>172500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>158000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>123300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>157100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>162300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>241200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>213600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>210700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>193900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>213900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,273 +1311,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3300</v>
       </c>
       <c r="L20" s="3">
         <v>3300</v>
       </c>
       <c r="M20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>232800</v>
+      </c>
+      <c r="E21" s="3">
         <v>41400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>225800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>247500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>237800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>213600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>217100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>197600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>162400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>195800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>296400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>266900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>263300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>243000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>260800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E22" s="3">
         <v>10500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>21400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>169000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>189500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>178600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>151700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>160500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>139500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>106200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>143200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>148000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>228000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>204700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>203300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>186800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>207000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>42200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>42000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>39500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>32500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>33900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>63300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>59300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>58900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>131100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>147300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>136600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>115900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>121000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>107000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>89500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>109300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>111900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>164800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>145400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>145000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>148200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>148100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>130500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>330600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>134900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>116800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>118400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>106100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>90800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>110600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>111500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>134400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>138000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>136100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>140700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>139200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,46 +1813,49 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>5600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-2200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-8600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>26900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>30700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>30600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>28700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-3300</v>
       </c>
       <c r="L32" s="3">
         <v>-3300</v>
       </c>
       <c r="M32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>130300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>329900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>140600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>114500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>109800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>133000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>121500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>141200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>140200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>138000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>136100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>140700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>139200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>130300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>329900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>140600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>114500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>109800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>133000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>121500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>141200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>140200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>138000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>136100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>140700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>139200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>533500</v>
+      </c>
+      <c r="E41" s="3">
         <v>296100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>617400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>106100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>75300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>88100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>119700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>111300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>99200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>174700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>79900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>74700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>62900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>62400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,379 +2422,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1407700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1101200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1198700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1246200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1278900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1203900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1193100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1168800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1627600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1561100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1576400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1522800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1544600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1409100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1362800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1254100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1463400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1406700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1328400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1428800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1356900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1367500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1370400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1415500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1932900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1930200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2015100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1933800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1692300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1567200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1624000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1665800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>464600</v>
+      </c>
+      <c r="E45" s="3">
         <v>605200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>474600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>445400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>404700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>452300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>457600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1534000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>513700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>459300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>430100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>454800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>465800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>412900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>342600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>360500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3869300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3409200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3619100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3226500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3115700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3108700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3109100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4175200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4194000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4061900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4120800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4086000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3782500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3463800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3392300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3342800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>356400</v>
+      </c>
+      <c r="E47" s="3">
         <v>362600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>331600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>327900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>385700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>389600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>404000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>420400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>518400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>510500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>449700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>432000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>450800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>472900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>458000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>442800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>584800</v>
+      </c>
+      <c r="E48" s="3">
         <v>547400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>543200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>561300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>551200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>551500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>563500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>314200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>374100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>368600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>377000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>375000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>361700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>351400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>336500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>333900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2999400</v>
+      </c>
+      <c r="E49" s="3">
         <v>2999000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3025400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3035400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3044300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3062400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3068200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2457100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3303900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2868800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2967300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2971000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2891700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2809400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2657900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2640900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2820,8 +2940,8 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2833,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -2844,8 +2964,8 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7809900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7318100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7519200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7151100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7097100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7112300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7144900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8500500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8390300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7809800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7914900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7864000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7486700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7097500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6844600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6760400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,326 +3140,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1007000</v>
+      </c>
+      <c r="E57" s="3">
         <v>735000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>780900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>880300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>854700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>745600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>695200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>785800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1136100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1117900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1020700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1153000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1029100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>882700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>843800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1007200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>617400</v>
+      </c>
+      <c r="E58" s="3">
         <v>612800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>491400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>133800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>217000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>251900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>309000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>959700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1157400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1191800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>968300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>758300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>649100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>594700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>690300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>503400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>979500</v>
+      </c>
+      <c r="E59" s="3">
         <v>959500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>933600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1024300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>837000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>827700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>874500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1473300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>936300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>843200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>867200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>917700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>758900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>752600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>751300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>810000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2603800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2307200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2205800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2038400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1908700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1825300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1878800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3218800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3229800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3152900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2856300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2829000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2437100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2229900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2285400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2320600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>515400</v>
+      </c>
+      <c r="E61" s="3">
         <v>515800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>865800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>622900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>872200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>973100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>973500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>980300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>985400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>907800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>907600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>807600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>708400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>715500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>603800</v>
+      </c>
+      <c r="E62" s="3">
         <v>594300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>569600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>572400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>573500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>580000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>591200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>539800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>461000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>455600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>476100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>470700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>384000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>378200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>336000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>315900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4654600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4327000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4544600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4153100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4267600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4285100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4347900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5539200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5417200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4896200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5012900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5052500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4475000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4171200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4057400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3967300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3314100</v>
+      </c>
+      <c r="E72" s="3">
         <v>3172400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3183200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3116200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2957900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2900400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2859200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3208600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3191300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3123400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2998300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2940000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3164500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3135000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3068200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2981800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3155300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2991100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2974600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2998000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2829500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2827300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2796900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2961300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2973100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2913500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2902000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2811500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3011600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2926300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2787200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2793100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>130300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>329900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>140600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>114500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>109800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>133000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>121500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>141200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>140200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>138000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>136100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>140700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>139200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E83" s="3">
         <v>47100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>48700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>46900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>40300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>52500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>51500</v>
       </c>
       <c r="L83" s="3">
         <v>51500</v>
       </c>
       <c r="M83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="N83" s="3">
         <v>52100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>51800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>44700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>44000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>249300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-90700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>90500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>292600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>232000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>163200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>294000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>173900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>287800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-70900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>238000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>131400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>228700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-52600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>264500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-51300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>269000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-55800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-39000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-598600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-71700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-129400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-156700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-136600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5303,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-230400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>491900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-536800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-189800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-121600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>632100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-285300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-96200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-250000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>27800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-128600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-68200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>83700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-129100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>15900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>237400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-321300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>511300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>31200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-75400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>94800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3165700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2840100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1684400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2428900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2668900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2508800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2447800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2360300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2472600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2355600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2316000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2273500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3318100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3161100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3059500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2922900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3120900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2306000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2085800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1230100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1682800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1858300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1747600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1680400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1608600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1721600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1633200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1597700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1554300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2417100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2325000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2220300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2100000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2261400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>859700</v>
+      </c>
+      <c r="E10" s="3">
         <v>754300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>454300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>746100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>810600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>761200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>767400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>751700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>751000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>722400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>718300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>719200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>901000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>836100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>839200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>822900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>859500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,47 +1063,50 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>54700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>54300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2700</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1098,13 +1117,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>16100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2984500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2652500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1691800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2255000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2472600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2321600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2285500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2187800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2314600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2232300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2158900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2111200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3076900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2947500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2848800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2729000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2907000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>181200</v>
+      </c>
+      <c r="E18" s="3">
         <v>187600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>173900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>196300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>187200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>162300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>172500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>158000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>123300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>157100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>162300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>241200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>213600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>210700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>193900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>213900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,288 +1344,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3300</v>
       </c>
       <c r="M20" s="3">
         <v>3300</v>
       </c>
       <c r="N20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>226800</v>
+      </c>
+      <c r="E21" s="3">
         <v>232800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>41400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>225800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>247500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>237800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>213600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>217100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>197600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>162400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>195800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>296400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>266900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>263300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>243000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>260800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="3">
         <v>11100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E23" s="3">
         <v>177200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>169000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>189500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>178600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>151700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>160500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>139500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>106200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>143200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>148000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>228000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>204700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>203300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>186800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>207000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E24" s="3">
         <v>29000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>42200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>42000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>63300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>59300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>38600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>58900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E26" s="3">
         <v>148200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>131100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>147300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>136600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>115900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>121000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>107000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>89500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>109300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>111900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>164800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>145400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>145000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>148200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>148100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E27" s="3">
         <v>141700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>130500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>330600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>134900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>116800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>118400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>106100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>90800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>110600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>111500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>134400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>138000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>136100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>140700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>139200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,49 +1873,52 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>5600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-2200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-8600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>26900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>30700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>30600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>28700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-3300</v>
       </c>
       <c r="M32" s="3">
         <v>-3300</v>
       </c>
       <c r="N32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E33" s="3">
         <v>141700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>130300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>329900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>140600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>114500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>109800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>133000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>121500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>141200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>140200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>138000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>136100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>140700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>139200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E35" s="3">
         <v>141700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>130300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>329900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>140600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>114500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>109800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>133000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>121500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>141200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>140200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>138000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>136100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>140700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>139200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>421200</v>
+      </c>
+      <c r="E41" s="3">
         <v>533500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>296100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>617400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>106100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>75300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>88100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>119700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>111300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>99200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>174700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>79900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>74700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>62900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>62400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,400 +2514,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1424800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1407700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1101200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1198700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1246200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1278900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1203900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1193100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1168800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1627600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1561100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1576400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1522800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1544600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1409100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1362800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1254100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1512500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1463400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1406700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1328400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1428800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1356900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1367500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1370400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1415500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1932900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1930200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2015100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1933800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1692300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1567200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1624000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1665800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>432900</v>
+      </c>
+      <c r="E45" s="3">
         <v>464600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>605200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>474600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>445400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>404700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>452300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>457600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1534000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>513700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>459300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>430100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>454800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>465800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>412900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>342600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>360500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3791400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3869300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3409200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3619100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3226500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3115700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3108700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3109100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4175200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4194000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4061900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4120800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4086000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3782500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3463800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3392300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3342800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>366400</v>
+      </c>
+      <c r="E47" s="3">
         <v>356400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>362600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>331600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>327900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>385700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>389600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>404000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>420400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>518400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>510500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>449700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>432000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>450800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>472900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>458000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>442800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>630900</v>
+      </c>
+      <c r="E48" s="3">
         <v>584800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>547400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>543200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>561300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>551200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>551500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>563500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>314200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>374100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>368600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>377000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>375000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>361700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>351400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>336500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>333900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2983800</v>
+      </c>
+      <c r="E49" s="3">
         <v>2999400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2999000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3025400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3035400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3044300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3062400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3068200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2457100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3303900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2868800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2967300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2971000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2891700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2809400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2657900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2640900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,19 +3045,22 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2956,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
@@ -2967,8 +3086,8 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2985,8 +3104,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7772500</v>
+      </c>
+      <c r="E54" s="3">
         <v>7809900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7318100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7519200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7151100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7097100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7112300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7144900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8500500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8390300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7809800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7914900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7864000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7486700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7097500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6844600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6760400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,344 +3270,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1005700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1007000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>735000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>780900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>880300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>854700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>745600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>695200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>785800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1136100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1117900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1020700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1153000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1029100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>882700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>843800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1007200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E58" s="3">
         <v>617400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>612800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>491400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>133800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>217000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>251900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>309000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>959700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1157400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1191800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>968300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>758300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>649100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>594700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>690300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>503400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1094200</v>
+      </c>
+      <c r="E59" s="3">
         <v>979500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>959500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>933600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1024300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>837000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>827700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>874500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1473300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>936300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>843200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>867200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>917700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>758900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>752600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>751300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>810000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2283100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2603800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2307200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2205800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2038400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1908700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1825300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1878800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3218800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3229800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3152900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2856300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2829000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2437100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2229900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2285400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2320600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>515800</v>
+      </c>
+      <c r="E61" s="3">
         <v>515400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>515800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>865800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>622900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>872200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>973100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>973500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>980300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>985400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1000500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>907800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>907600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>807600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>708400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>715500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>661600</v>
+      </c>
+      <c r="E62" s="3">
         <v>603800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>594300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>569600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>572400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>573500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>580000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>591200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>539800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>461000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>455600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>476100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>470700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>384000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>378200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>336000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>315900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4424400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4654600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4327000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4544600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4153100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4267600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4285100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4347900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5539200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5417200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4896200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5012900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5052500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4475000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4171200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4057400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3967300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3454800</v>
+      </c>
+      <c r="E72" s="3">
         <v>3314100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3172400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3183200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3116200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2957900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2900400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2859200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3208600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3191300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3123400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2998300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2940000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3164500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3135000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3068200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2981800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3348200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3155300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2991100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2974600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2998000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2829500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2827300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2796900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2961300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2973100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2913500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2902000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2811500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3011600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2926300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2787200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2793100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E81" s="3">
         <v>141700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>130300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>329900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>140600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>114500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>109800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>133000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>121500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>141200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>140200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>138000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>136100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>140700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>139200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E83" s="3">
         <v>44600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>48700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>46900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>40300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>51500</v>
       </c>
       <c r="M83" s="3">
         <v>51500</v>
       </c>
       <c r="N83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="O83" s="3">
         <v>52100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>51800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>48700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>44700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>349800</v>
+      </c>
+      <c r="E89" s="3">
         <v>249300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-90700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>90500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>292600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>232000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>163200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>294000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>173900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>287800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-70900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>238000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>131400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>228700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-52600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>264500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-51300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>269000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-55800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-39000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-598600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-71700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-39500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-129400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-156700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-136600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-451000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-230400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>491900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-536800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-189800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-121600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>632100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-285300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-96200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-250000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>27800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-128600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-68200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>83700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-129100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>15900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-112300</v>
+      </c>
+      <c r="E102" s="3">
         <v>237400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-321300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>511300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>31200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-75400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>94800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2925000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3165700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2840100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1684400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2428900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2668900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2508800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2447800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2360300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2472600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2355600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2316000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2273500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3318100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3161100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3059500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2922900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3120900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2034100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2306000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2085800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1230100</v>
       </c>
-      <c r="G9" s="3">
-        <v>1682800</v>
-      </c>
       <c r="H9" s="3">
+        <v>1682900</v>
+      </c>
+      <c r="I9" s="3">
         <v>1858300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1747600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1680400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1608600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1721600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1633200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1597700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1554300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2417100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2325000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2220300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2100000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2261400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>890900</v>
+      </c>
+      <c r="E10" s="3">
         <v>859700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>754300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>454300</v>
       </c>
-      <c r="G10" s="3">
-        <v>746100</v>
-      </c>
       <c r="H10" s="3">
+        <v>746000</v>
+      </c>
+      <c r="I10" s="3">
         <v>810600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>761200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>767400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>751700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>751000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>722400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>718300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>719200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>901000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>836100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>839200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>822900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>859500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,50 +1083,53 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3">
         <v>4400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>54700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>54300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2700</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1120,13 +1140,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>16100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2695000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2984500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2652500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1691800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2255000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2472600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2321600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2285500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2187800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2314600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2232300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2158900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2111200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3076900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2947500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2848800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2729000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2907000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E18" s="3">
         <v>181200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>187600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>173900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>196300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>187200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>162300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>172500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>158000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>123300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>157100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>162300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>241200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>213600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>210700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>193900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>213900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,303 +1378,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3300</v>
       </c>
       <c r="N20" s="3">
         <v>3300</v>
       </c>
       <c r="O20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>281600</v>
+      </c>
+      <c r="E21" s="3">
         <v>226800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>232800</v>
       </c>
-      <c r="F21" s="3">
-        <v>41400</v>
-      </c>
       <c r="G21" s="3">
-        <v>225800</v>
+        <v>43400</v>
       </c>
       <c r="H21" s="3">
+        <v>223800</v>
+      </c>
+      <c r="I21" s="3">
         <v>247500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>237800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>213600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>217100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>197600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>162400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>195800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>296400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>266900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>263300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>243000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>260800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E22" s="3">
         <v>12000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>225700</v>
+      </c>
+      <c r="E23" s="3">
         <v>169900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>177200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>169000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>189500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>178600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>151700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>160500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>139500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>106200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>143200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>148000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>228000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>204700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>203300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>186800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>207000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E24" s="3">
         <v>29400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>29000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>42200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>42000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>63300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>59300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>58300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>38600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>58900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>169100</v>
+      </c>
+      <c r="E26" s="3">
         <v>140500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>148200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>131100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>147300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>136600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>115900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>121000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>107000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>89500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>109300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>111900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>164800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>145400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>145000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>148200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>148100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E27" s="3">
         <v>141900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>141700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>130500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>330600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>134900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>116800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>118400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>106100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>90800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>110600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>111500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>134400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>138000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>136100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>140700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>139200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,52 +1934,55 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>700</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>600</v>
       </c>
-      <c r="G29" s="3">
-        <v>-300</v>
-      </c>
       <c r="H29" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I29" s="3">
         <v>-700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>5600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-2200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-8600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>26900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>30700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>30600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>28700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-3300</v>
       </c>
       <c r="N32" s="3">
         <v>-3300</v>
       </c>
       <c r="O32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E33" s="3">
         <v>142600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>141700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10800</v>
       </c>
-      <c r="G33" s="3">
-        <v>130300</v>
-      </c>
       <c r="H33" s="3">
+        <v>130000</v>
+      </c>
+      <c r="I33" s="3">
         <v>329900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>140600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>114500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>109800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>133000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>121500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>141200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>140200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>138000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>136100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>140700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>139200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E35" s="3">
         <v>142600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>141700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10800</v>
       </c>
-      <c r="G35" s="3">
-        <v>130300</v>
-      </c>
       <c r="H35" s="3">
+        <v>130000</v>
+      </c>
+      <c r="I35" s="3">
         <v>329900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>140600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>114500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>109800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>133000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>121500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>141200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>140200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>138000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>136100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>140700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>139200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E41" s="3">
         <v>421200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>533500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>296100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>617400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>106100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>75300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>84900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>88100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>119700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>111300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>99200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>174700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>79900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>74700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>62900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>62400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,421 +2607,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1317500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1424800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1407700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1101200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1198700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1246200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1278900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1203900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1193100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1168800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1627600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1561100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1576400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1522800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1544600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1409100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1362800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1254100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1626200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1512500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1463400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1406700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1328400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1428800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1356900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1367500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1370400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1415500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1932900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1930200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2015100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1933800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1692300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1567200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1624000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1665800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>482400</v>
+      </c>
+      <c r="E45" s="3">
         <v>432900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>464600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>605200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>474600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>445400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>404700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>452300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>457600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1534000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>513700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>459300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>430100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>454800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>465800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>412900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>342600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>360500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3570600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3791400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3869300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3409200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3619100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3226500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3115700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3108700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3109100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4175200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4194000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4061900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4120800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4086000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3782500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3463800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3392300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3342800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>369200</v>
+      </c>
+      <c r="E47" s="3">
         <v>366400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>356400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>362600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>331600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>327900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>385700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>389600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>404000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>420400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>518400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>510500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>449700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>432000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>450800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>472900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>458000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>442800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>655000</v>
+      </c>
+      <c r="E48" s="3">
         <v>630900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>584800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>547400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>543200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>561300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>551200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>551500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>563500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>314200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>374100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>368600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>377000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>375000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>361700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>351400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>336500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>333900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3185100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2983800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2999400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2999000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3025400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3035400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3044300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3062400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3068200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2457100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3303900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2868800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2967300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2971000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2891700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2809400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2657900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2640900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,8 +3165,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3078,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
@@ -3089,8 +3209,8 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7779900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7772500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7809900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7318100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7519200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7151100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7097100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7112300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7144900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8500500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8390300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7809800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7914900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7864000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7486700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7097500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6844600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6760400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,362 +3401,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>909600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1005700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1007000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>735000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>780900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>880300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>854700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>745600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>695200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>785800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1136100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1117900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1020700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1153000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1029100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>882700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>843800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1007200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E58" s="3">
         <v>183200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>617400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>612800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>491400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>133800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>217000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>251900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>309000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>959700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1157400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1191800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>968300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>758300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>649100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>594700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>690300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>503400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1034600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1094200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>979500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>959500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>933600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1024300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>837000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>827700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>874500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1473300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>936300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>843200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>867200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>917700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>758900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>752600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>751300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>810000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2122800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2283100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2603800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2307200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2205800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2038400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1908700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1825300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1878800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3218800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3229800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3152900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2856300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2829000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2437100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2229900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2285400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2320600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>506500</v>
+      </c>
+      <c r="E61" s="3">
         <v>515800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>515400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>515800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>865800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>622900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>872200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>973100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>973500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>980300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>985400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1000500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>907800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>907600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>807600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>708400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>715500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>701100</v>
+      </c>
+      <c r="E62" s="3">
         <v>661600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>603800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>594300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>569600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>572400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>573500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>580000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>591200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>539800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>461000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>455600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>476100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>470700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>384000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>378200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>336000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>315900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4421800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4424400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4654600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4327000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4544600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4153100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4267600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4285100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4347900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5539200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5417200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4896200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5012900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5052500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4475000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4171200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4057400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3967300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3493100</v>
+      </c>
+      <c r="E72" s="3">
         <v>3454800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3314100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3172400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3183200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3116200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2957900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2900400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2859200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3208600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3191300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3123400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2998300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2940000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3164500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3135000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3068200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2981800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3358200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3348200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3155300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2991100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2974600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2998000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2829500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2827300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2796900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2961300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2973100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2913500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2902000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2811500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3011600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2926300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2787200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2793100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E81" s="3">
         <v>142600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>141700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10800</v>
       </c>
-      <c r="G81" s="3">
-        <v>130300</v>
-      </c>
       <c r="H81" s="3">
+        <v>130000</v>
+      </c>
+      <c r="I81" s="3">
         <v>329900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>140600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>114500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>109800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>133000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>121500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>141200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>140200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>138000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>136100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>140700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>139200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E83" s="3">
         <v>44900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>47100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>48700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>46900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>52500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>51500</v>
       </c>
       <c r="N83" s="3">
         <v>51500</v>
       </c>
       <c r="O83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="P83" s="3">
         <v>52100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>51800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>48700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>47800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E89" s="3">
         <v>349800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>249300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-90700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>90500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>292600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>232000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>163200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>294000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>173900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>287800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-70900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>238000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>131400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>228700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-52600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>264500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-51300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-223200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-16000</v>
-      </c>
       <c r="G94" s="3">
-        <v>-65600</v>
+        <v>-28000</v>
       </c>
       <c r="H94" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="I94" s="3">
         <v>269000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-55800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-39000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-598600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-71700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-39500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-129400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-156700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-34700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-136600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-451000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-230400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>491900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-536800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-189800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-121600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>632100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-285300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-96200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-250000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>27800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-128600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-68200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>83700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-129100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>9900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>15900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-12600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-276600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-112300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>237400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-321300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>511300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>30800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-75400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>94800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E7" s="2">
         <v>44282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2967200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2925000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3165700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2840100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1684400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2428900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2668900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2508800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2447800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2360300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2472600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2355600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2316000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2273500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3318100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3161100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3059500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2922900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3120900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2077500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2034100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2306000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2085800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1230100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1682900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1858300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1747600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1680400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1608600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1721600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1633200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1597700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1554300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2417100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2325000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2220300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2100000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2261400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>889700</v>
+      </c>
+      <c r="E10" s="3">
         <v>890900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>859700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>754300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>454300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>746000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>810600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>761200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>767400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>751700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>751000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>722400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>718300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>719200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>901000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>836100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>839200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>822900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>859500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,53 +1103,56 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>54700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>54300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2700</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1143,13 +1163,16 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>16100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2756900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2695000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2984500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2652500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1691800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2255000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2472600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2321600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2285500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2187800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2314600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2232300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2158900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2111200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3076900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2947500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2848800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2729000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2907000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>210300</v>
+      </c>
+      <c r="E18" s="3">
         <v>230000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>181200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>187600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>173900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>196300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>187200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>162300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>172500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>158000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>123300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>157100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>162300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>241200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>213600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>210700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>193900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>213900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,318 +1412,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3300</v>
       </c>
       <c r="O20" s="3">
         <v>3300</v>
       </c>
       <c r="P20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E21" s="3">
         <v>281600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>226800</v>
       </c>
-      <c r="F21" s="3">
-        <v>232800</v>
-      </c>
       <c r="G21" s="3">
-        <v>43400</v>
+        <v>235000</v>
       </c>
       <c r="H21" s="3">
+        <v>41200</v>
+      </c>
+      <c r="I21" s="3">
         <v>223800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>247500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>237800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>213600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>217100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>197600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>162400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>195800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>296400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>266900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>263300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>243000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>260800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E22" s="3">
         <v>6500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E23" s="3">
         <v>225700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>169900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>177200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>169000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>189500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>178600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>151700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>160500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>139500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>106200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>143200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>148000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>228000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>204700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>203300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>186800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>207000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E24" s="3">
         <v>56700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>29400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>42200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>42000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>63300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>59300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>58300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>38600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>58900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>157700</v>
+      </c>
+      <c r="E26" s="3">
         <v>169100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>140500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>148200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>131100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>147300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>136600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>115900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>121000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>107000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>89500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>109300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>111900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>164800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>145400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>145000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>148200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>148100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E27" s="3">
         <v>166000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>141900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>141700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>130500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>330600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>134900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>116800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>118400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>106100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>90800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>110600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>111500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>134400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>138000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>136100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>140700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>139200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1946,46 +2007,46 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>700</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I29" s="3">
         <v>-600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>5600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-8600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>26900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>30700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>30600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>28700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-3300</v>
       </c>
       <c r="O32" s="3">
         <v>-3300</v>
       </c>
       <c r="P32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E33" s="3">
         <v>166000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>142600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>141700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-10800</v>
-      </c>
       <c r="H33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I33" s="3">
         <v>130000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>329900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>140600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>114500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>109800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>133000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>121500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>141200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>140200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>138000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>136100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>140700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>139200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E35" s="3">
         <v>166000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>142600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>141700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-10800</v>
-      </c>
       <c r="H35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I35" s="3">
         <v>130000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>329900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>140600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>114500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>109800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>133000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>121500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>141200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>140200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>138000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>136100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>140700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>139200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E38" s="2">
         <v>44282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2572,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>167200</v>
+      </c>
+      <c r="E41" s="3">
         <v>144500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>421200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>533500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>296100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>617400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>106100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>75300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>88100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>119700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>111300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>99200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>174700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>79900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>74700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>62900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>62400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,442 +2700,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1356900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1317500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1424800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1407700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1101200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1198700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1246200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1278900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1203900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1193100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1168800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1627600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1561100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1576400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1522800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1544600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1409100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1362800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1254100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1688200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1626200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1512500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1463400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1406700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1328400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1428800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1356900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1367500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1370400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1415500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1932900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1930200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2015100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1933800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1692300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1567200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1624000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1665800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>529900</v>
+      </c>
+      <c r="E45" s="3">
         <v>482400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>432900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>464600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>605200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>474600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>445400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>404700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>452300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>457600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1534000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>513700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>459300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>430100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>454800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>465800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>412900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>342600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>360500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3742200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3570600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3791400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3869300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3409200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3619100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3226500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3115700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3108700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3109100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4175200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4194000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4061900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4120800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4086000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3782500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3463800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3392300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3342800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>394700</v>
+      </c>
+      <c r="E47" s="3">
         <v>369200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>366400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>356400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>362600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>331600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>327900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>385700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>389600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>404000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>420400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>518400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>510500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>449700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>432000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>450800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>472900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>458000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>442800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>659700</v>
+      </c>
+      <c r="E48" s="3">
         <v>655000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>630900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>584800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>547400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>543200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>561300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>551200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>551500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>563500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>314200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>374100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>368600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>377000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>375000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>361700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>351400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>336500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>333900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3327500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3185100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2983800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2999400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2999000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3025400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3035400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3044300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3062400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3068200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2457100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3303900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2868800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2967300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2971000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2891700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2809400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2657900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2640900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,8 +3285,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3201,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
@@ -3212,8 +3332,8 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8124100</v>
+      </c>
+      <c r="E54" s="3">
         <v>7779900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7772500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7809900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7318100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7519200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7151100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7097100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7112300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7144900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8500500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8390300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7809800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7914900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7864000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7486700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7097500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6844600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6760400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,380 +3532,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>903900</v>
+      </c>
+      <c r="E57" s="3">
         <v>909600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1005700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1007000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>735000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>780900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>880300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>854700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>745600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>695200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>785800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1136100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1117900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1020700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1153000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1029100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>882700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>843800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1007200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E58" s="3">
         <v>178600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>183200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>617400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>612800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>491400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>133800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>217000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>251900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>309000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>959700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1157400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1191800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>968300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>758300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>649100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>594700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>690300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>503400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1107800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1034600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1094200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>979500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>959500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>933600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1024300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>837000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>827700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>874500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1473300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>936300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>843200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>867200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>917700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>758900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>752600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>751300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>810000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2093600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2122800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2283100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2603800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2307200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2205800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2038400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1908700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1825300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1878800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3218800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3229800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3152900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2856300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2829000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2437100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2229900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2285400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2320600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>706500</v>
+      </c>
+      <c r="E61" s="3">
         <v>506500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>515800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>515400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>515800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>865800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>622900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>872200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>973100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>973500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>980300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1000300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>985400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1000500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>907800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>907600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>807600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>708400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>715500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>713200</v>
+      </c>
+      <c r="E62" s="3">
         <v>701100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>661600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>603800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>594300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>569600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>572400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>573500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>580000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>591200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>539800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>461000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>455600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>476100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>470700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>384000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>378200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>336000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>315900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4763800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4421800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4424400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4654600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4327000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4544600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4153100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4267600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4285100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4347900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5539200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5417200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4896200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5012900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5052500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4475000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4171200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4057400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3967300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3465600</v>
+      </c>
+      <c r="E72" s="3">
         <v>3493100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3454800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3314100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3172400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3183200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3116200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2957900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2900400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2859200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3208600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3191300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3123400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2998300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2940000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3164500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3135000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3068200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2981800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3360300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3358200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3348200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3155300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2991100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2974600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2998000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2829500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2827300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2796900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2961300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2973100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2913500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2902000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2811500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3011600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2926300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2787200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2793100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E80" s="2">
         <v>44282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E81" s="3">
         <v>166000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>142600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>141700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-10800</v>
-      </c>
       <c r="H81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I81" s="3">
         <v>130000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>329900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>140600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>114500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>109800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>133000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>121500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>141200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>140200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>138000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>136100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>140700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>139200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E83" s="3">
         <v>49400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>47100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>48700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>46900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>51500</v>
       </c>
       <c r="O83" s="3">
         <v>51500</v>
       </c>
       <c r="P83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>52100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>51800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>47800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>44000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E89" s="3">
         <v>63300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>349800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>249300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-90700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>90500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>292600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>232000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>163200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>294000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>173900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>287800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-70900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>238000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>131400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>228700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-52600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>264500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-51300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-117900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-223200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-12300</v>
-      </c>
       <c r="G94" s="3">
-        <v>-28000</v>
+        <v>-24300</v>
       </c>
       <c r="H94" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-53600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>269000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-55800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-598600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-71700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-39500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-129400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-156700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-34700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-136600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-119400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-451000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-230400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>491900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-536800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-189800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-121600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>632100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-285300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-96200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-250000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>27800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-128600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-68200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>83700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-129100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>15900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-12600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-276600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-112300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>237400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-321300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>511300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>30800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-75400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>94800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,307 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E7" s="2">
         <v>44373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44282</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3178300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2967200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2925000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3165700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2840100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1684400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2428900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2668900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2508800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2447800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2360300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2472600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2355600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2316000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2273500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3318100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3161100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3059500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2922900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3120900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2266200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2077500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2034100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2306000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2085800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1230100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1682900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1858300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1747600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1680400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1608600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1721600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1633200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1597700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1554300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2417100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2325000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2220300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2100000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2261400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>912100</v>
+      </c>
+      <c r="E10" s="3">
         <v>889700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>890900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>859700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>754300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>454300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>746000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>810600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>761200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>767400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>751700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>751000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>722400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>718300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>719200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>901000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>836100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>839200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>822900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>859500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,56 +1123,59 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>54700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>54300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2700</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1166,13 +1186,16 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>16100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2967500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2756900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2695000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2984500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2652500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1691800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2255000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2472600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2321600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2285500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2187800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2314600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2232300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2158900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2111200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3076900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2947500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2848800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2729000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2907000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>210800</v>
+      </c>
+      <c r="E18" s="3">
         <v>210300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>230000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>181200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>187600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>173900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>196300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>187200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>162300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>172500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>158000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>123300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>157100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>162300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>241200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>213600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>210700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>193900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>213900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,333 +1446,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3300</v>
       </c>
       <c r="P20" s="3">
         <v>3300</v>
       </c>
       <c r="Q20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E21" s="3">
         <v>262000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>281600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>226800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>235000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>223800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>247500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>237800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>213600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>217100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>197600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>162400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>195800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>296400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>266900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>263300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>243000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>260800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E22" s="3">
         <v>6400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>206100</v>
+      </c>
+      <c r="E23" s="3">
         <v>205700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>225700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>169900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>177200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>169000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>189500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>178600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>151700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>160500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>139500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>106200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>143200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>148000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>228000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>204700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>203300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>186800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>207000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E24" s="3">
         <v>48000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>56700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>37900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>42200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>33900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>63300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>59300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>58300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>38600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>58900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>156800</v>
+      </c>
+      <c r="E26" s="3">
         <v>157700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>169100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>140500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>148200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>131100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>147300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>136600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>115900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>121000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>107000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>89500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>109300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>111900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>164800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>145400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>145000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>148200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>148100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>162300</v>
+      </c>
+      <c r="E27" s="3">
         <v>155700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>166000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>141900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>141700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>130500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>330600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>134900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>116800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>118400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>106100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>90800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>110600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>111500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>134400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>138000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>136100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>140700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>139200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2010,46 +2071,46 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>700</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>1200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-8600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>26900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>30700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>30600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>28700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-3300</v>
       </c>
       <c r="P32" s="3">
         <v>-3300</v>
       </c>
       <c r="Q32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>162300</v>
+      </c>
+      <c r="E33" s="3">
         <v>155700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>166000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>142600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>141700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>130000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>329900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>140600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>114500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>109800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>133000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>121500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>141200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>140200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>138000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>136100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>140700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>139200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>162300</v>
+      </c>
+      <c r="E35" s="3">
         <v>155700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>166000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>142600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>141700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>130000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>329900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>140600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>114500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>109800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>133000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>121500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>141200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>140200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>138000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>136100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>140700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>139200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E38" s="2">
         <v>44373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44282</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E41" s="3">
         <v>167200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>421200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>533500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>296100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>617400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>106100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>75300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>88100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>119700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>111300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>99200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>174700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>79900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>74700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>62900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>62400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,463 +2793,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1551900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1356900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1317500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1424800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1407700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1101200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1198700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1246200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1278900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1203900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1193100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1168800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1627600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1561100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1576400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1522800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1544600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1409100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1362800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1254100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1784100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1688200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1626200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1512500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1463400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1406700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1328400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1428800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1356900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1367500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1370400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1415500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1932900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1930200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2015100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1933800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1692300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1567200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1624000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1665800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>457200</v>
+      </c>
+      <c r="E45" s="3">
         <v>529900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>482400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>432900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>464600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>605200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>474600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>445400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>404700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>452300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>457600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1534000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>513700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>459300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>430100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>454800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>465800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>412900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>342600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>360500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3912400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3742200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3570600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3791400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3869300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3409200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3619100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3226500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3115700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3108700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3109100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4175200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4194000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4061900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4120800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4086000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3782500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3463800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3392300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3342800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>397800</v>
+      </c>
+      <c r="E47" s="3">
         <v>394700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>369200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>366400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>356400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>362600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>331600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>327900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>385700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>389600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>404000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>420400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>518400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>510500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>449700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>432000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>450800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>472900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>458000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>442800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>685600</v>
+      </c>
+      <c r="E48" s="3">
         <v>659700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>655000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>630900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>584800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>547400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>543200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>561300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>551200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>551500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>563500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>314200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>374100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>368600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>377000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>375000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>361700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>351400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>336500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>333900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3425100</v>
+      </c>
+      <c r="E49" s="3">
         <v>3327500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3185100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2983800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2999400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2999000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3025400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3035400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3044300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3062400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3068200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2457100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3303900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2868800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2967300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2971000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2891700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2809400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2657900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2640900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,8 +3405,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3324,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
@@ -3335,8 +3455,8 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8420800</v>
+      </c>
+      <c r="E54" s="3">
         <v>8124100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7779900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7772500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7809900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7318100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7519200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7151100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7097100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7112300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7144900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8500500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8390300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7809800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7914900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7864000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7486700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7097500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6844600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6760400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,398 +3663,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1057100</v>
+      </c>
+      <c r="E57" s="3">
         <v>903900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>909600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1005700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1007000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>735000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>780900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>880300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>854700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>745600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>695200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>785800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1136100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1117900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1020700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1153000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1029100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>882700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>843800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1007200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E58" s="3">
         <v>81900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>178600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>183200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>617400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>612800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>491400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>133800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>217000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>251900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>309000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>959700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1157400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1191800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>968300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>758300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>649100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>594700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>690300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>503400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1175200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1107800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1034600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1094200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>979500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>959500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>933600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1024300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>837000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>827700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>874500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1473300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>936300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>843200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>867200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>917700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>758900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>752600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>751300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>810000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2301400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2093600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2122800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2283100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2603800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2307200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2205800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2038400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1908700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1825300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1878800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3218800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3229800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3152900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2856300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2829000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2437100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2229900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2285400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2320600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>705500</v>
+      </c>
+      <c r="E61" s="3">
         <v>706500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>506500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>515800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>515400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>515800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>865800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>622900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>872200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>973100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>973500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>980300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1000300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>985400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1000500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>907800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>907600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>807600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>708400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>715500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>695600</v>
+      </c>
+      <c r="E62" s="3">
         <v>713200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>701100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>661600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>603800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>594300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>569600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>572400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>573500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>580000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>591200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>539800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>461000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>455600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>476100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>470700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>384000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>378200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>336000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>315900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4962800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4763800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4421800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4424400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4654600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4327000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4544600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4153100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4267600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4285100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4347900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5539200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5417200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4896200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5012900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5052500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4475000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4171200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4057400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3967300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3594200</v>
+      </c>
+      <c r="E72" s="3">
         <v>3465600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3493100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3454800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3314100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3172400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3183200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3116200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2957900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2900400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2859200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3208600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3191300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3123400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2998300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2940000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3164500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3135000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3068200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2981800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3360300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3358200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3348200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3155300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2991100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2974600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2998000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2829500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2827300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2796900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2961300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2973100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2913500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2902000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2811500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3011600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2926300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2787200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2793100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E80" s="2">
         <v>44373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44282</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>162300</v>
+      </c>
+      <c r="E81" s="3">
         <v>155700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>166000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>142600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>141700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>130000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>329900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>140600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>114500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>109800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>133000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>121500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>141200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>140200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>138000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>136100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>140700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>139200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E83" s="3">
         <v>49900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>48700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>51500</v>
       </c>
       <c r="P83" s="3">
         <v>51500</v>
       </c>
       <c r="Q83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="R83" s="3">
         <v>52100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>51800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>48700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>47800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>44700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>44000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>211200</v>
+      </c>
+      <c r="E89" s="3">
         <v>158400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>63300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>349800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>249300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-90700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>90500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>292600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>232000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>163200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>294000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>173900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>287800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-70900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>238000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>131400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>228700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-52600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>264500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-51300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-137900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-117900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-223200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-53600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>269000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-55800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-598600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-71700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-39500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-129400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-156700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-34700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-136600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-115100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-119400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-451000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-230400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>491900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-536800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-189800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-121600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>632100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-285300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-96200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-250000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>27800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-128600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-68200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>83700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-129100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E101" s="3">
         <v>2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>15900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-12600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E102" s="3">
         <v>22700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-276600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-112300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>237400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-321300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>511300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-75400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>94800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-13800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E7" s="2">
         <v>44464</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3330500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3178300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2967200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2925000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3165700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2840100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1684400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2428900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2668900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2508800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2447800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2360300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2472600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2355600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2316000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2273500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3318100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3161100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3059500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2922900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3120900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2351000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2266200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2077500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2034100</v>
       </c>
-      <c r="G9" s="3">
-        <v>2306000</v>
-      </c>
       <c r="H9" s="3">
-        <v>2085800</v>
+        <v>2306100</v>
       </c>
       <c r="I9" s="3">
+        <v>2085900</v>
+      </c>
+      <c r="J9" s="3">
         <v>1230100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1682900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1858300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1747600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1680400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1608600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1721600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1633200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1597700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1554300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2417100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2325000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2220300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2100000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2261400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>979500</v>
+      </c>
+      <c r="E10" s="3">
         <v>912100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>889700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>890900</v>
       </c>
-      <c r="G10" s="3">
-        <v>859700</v>
-      </c>
       <c r="H10" s="3">
-        <v>754300</v>
+        <v>859600</v>
       </c>
       <c r="I10" s="3">
+        <v>754200</v>
+      </c>
+      <c r="J10" s="3">
         <v>454300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>746000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>810600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>761200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>767400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>751700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>751000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>722400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>718300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>719200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>901000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>836100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>839200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>822900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>859500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,59 +1142,62 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>54700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>54300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2700</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1189,13 +1208,16 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>16100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3130000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2967500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2756900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2695000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2984500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2652500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1691800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2255000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2472600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2321600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2285500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2187800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2314600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2232300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2158900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2111200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3076900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2947500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2848800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2729000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2907000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200500</v>
+      </c>
+      <c r="E18" s="3">
         <v>210800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>210300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>230000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>181200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>187600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>173900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>196300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>187200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>162300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>172500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>158000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>123300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>157100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>162300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>241200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>213600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>210700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>193900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>213900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,348 +1479,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>3300</v>
       </c>
       <c r="Q20" s="3">
         <v>3300</v>
       </c>
       <c r="R20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>259900</v>
+      </c>
+      <c r="E21" s="3">
         <v>264200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>262000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>281600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>226800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>235000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>41200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>223800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>247500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>237800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>213600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>217100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>197600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>162400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>195800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>296400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>266900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>263300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>243000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>260800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E22" s="3">
         <v>6600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E23" s="3">
         <v>206100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>205700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>225700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>169900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>177200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>169000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>189500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>178600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>151700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>160500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>139500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>106200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>143200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>148000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>228000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>204700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>203300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>186800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>207000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E24" s="3">
         <v>49300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>48000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>56700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>37900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>63300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>59300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>58300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>38600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>58900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>149700</v>
+      </c>
+      <c r="E26" s="3">
         <v>156800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>157700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>169100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>140500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>148200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>131100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>147300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>136600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>115900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>121000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>107000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>89500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>109300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>111900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>164800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>145400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>145000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>148200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>148100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E27" s="3">
         <v>162300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>155700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>166000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>141900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>141700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>130500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>330600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>134900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>116800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>118400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>106100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>90800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>110600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>111500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>134400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>138000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>136100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>140700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>139200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2074,46 +2134,46 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>700</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>1200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-8600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>26900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>30700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>30600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>28700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-3300</v>
       </c>
       <c r="Q32" s="3">
         <v>-3300</v>
       </c>
       <c r="R32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E33" s="3">
         <v>162300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>155700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>166000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>142600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>141700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>130000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>329900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>140600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>114500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>109800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>133000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>121500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>141200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>140200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>138000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>136100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>140700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>139200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E35" s="3">
         <v>162300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>155700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>166000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>142600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>141700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>130000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>329900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>140600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>114500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>109800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>133000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>121500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>141200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>140200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>138000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>136100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>140700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>139200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E38" s="2">
         <v>44464</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E41" s="3">
         <v>119100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>167200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>144500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>421200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>533500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>296100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>617400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>106100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>75300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>88100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>119700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>111300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>99200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>174700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>79900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>74700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>62900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>62400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,484 +2885,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1451800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1551900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1356900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1317500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1424800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1407700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1101200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1198700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1246200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1278900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1203900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1193100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1168800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1627600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1561100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1576400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1522800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1544600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1409100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1362800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1254100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1861100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1784100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1688200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1626200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1512500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1463400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1406700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1328400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1428800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1356900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1367500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1370400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1415500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1932900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1930200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2015100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1933800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1692300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1567200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1624000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1665800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>413100</v>
+      </c>
+      <c r="E45" s="3">
         <v>457200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>529900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>482400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>432900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>464600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>605200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>474600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>445400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>404700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>452300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>457600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1534000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>513700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>459300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>430100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>454800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>465800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>412900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>342600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>360500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3844000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3912400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3742200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3570600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3791400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3869300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3409200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3619100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3226500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3115700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3108700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3109100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4175200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4194000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4061900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4120800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4086000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3782500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3463800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3392300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3342800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>423900</v>
+      </c>
+      <c r="E47" s="3">
         <v>397800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>394700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>369200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>366400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>356400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>362600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>331600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>327900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>385700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>389600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>404000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>420400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>518400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>510500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>449700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>432000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>450800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>472900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>458000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>442800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>691400</v>
+      </c>
+      <c r="E48" s="3">
         <v>685600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>659700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>655000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>630900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>584800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>547400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>543200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>561300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>551200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>551500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>563500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>314200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>374100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>368600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>377000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>375000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>361700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>351400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>336500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>333900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3521800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3425100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3327500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3185100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2983800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2999400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2999000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3025400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3035400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3044300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3062400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3068200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2457100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3303900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2868800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2967300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2971000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2891700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2809400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2657900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2640900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,8 +3524,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3447,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
@@ -3458,8 +3577,8 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3476,8 +3595,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8481100</v>
+      </c>
+      <c r="E54" s="3">
         <v>8420800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8124100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7779900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7772500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7809900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7318100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7519200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7151100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7097100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7112300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7144900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8500500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8390300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7809800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7914900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7864000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7486700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7097500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6844600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6760400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,416 +3793,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1053900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1057100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>903900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>909600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1005700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1007000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>735000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>780900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>880300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>854700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>745600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>695200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>785800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1136100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1117900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1020700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1153000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1029100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>882700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>843800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1007200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E58" s="3">
         <v>69000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>81900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>178600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>183200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>617400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>612800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>491400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>133800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>217000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>251900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>309000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>959700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1157400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1191800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>968300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>758300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>649100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>594700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>690300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>503400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1191400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1175200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1107800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1034600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1094200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>979500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>959500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>933600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1024300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>837000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>827700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>874500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1473300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>936300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>843200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>867200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>917700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>758900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>752600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>751300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>810000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2306500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2301400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2093600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2122800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2283100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2603800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2307200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2205800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2038400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1908700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1825300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1878800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3218800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3229800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3152900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2856300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2829000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2437100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2229900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2285400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2320600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>811300</v>
+      </c>
+      <c r="E61" s="3">
         <v>705500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>706500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>506500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>515800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>515400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>515800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>865800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>622900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>872200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>973100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>973500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>980300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1000300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>985400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1000500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>907800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>907600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>807600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>708400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>715500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>686700</v>
+      </c>
+      <c r="E62" s="3">
         <v>695600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>713200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>701100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>661600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>603800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>594300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>569600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>572400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>573500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>580000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>591200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>539800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>461000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>455600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>476100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>470700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>384000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>378200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>336000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>315900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5056000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4962800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4763800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4421800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4424400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4654600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4327000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4544600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4153100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4267600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4285100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4347900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5539200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5417200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4896200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5012900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5052500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4475000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4171200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4057400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3967300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3595200</v>
+      </c>
+      <c r="E72" s="3">
         <v>3594200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3465600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3493100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3454800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3314100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3172400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3183200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3116200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2957900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2900400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2859200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3208600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3191300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3123400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2998300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2940000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3164500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3135000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3068200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2981800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3425100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3458000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3360300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3358200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3348200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3155300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2991100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2974600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2998000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2829500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2827300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2796900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2961300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2973100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2913500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2902000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2811500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3011600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2926300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2787200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2793100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E80" s="2">
         <v>44464</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E81" s="3">
         <v>162300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>155700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>166000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>142600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>141700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>130000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>329900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>140600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>114500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>109800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>133000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>121500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>141200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>140200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>138000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>136100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>140700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>139200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E83" s="3">
         <v>51600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>48700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>46900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>51500</v>
       </c>
       <c r="Q83" s="3">
         <v>51500</v>
       </c>
       <c r="R83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="S83" s="3">
         <v>52100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>51800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>48700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>47800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>44700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>44000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>276600</v>
+      </c>
+      <c r="E89" s="3">
         <v>211200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>158400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>63300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>349800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>249300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-90700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>90500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>292600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>232000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>163200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>294000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>173900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>287800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-70900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>238000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>131400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>228700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-52600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>264500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-51300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-137900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-117900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-223200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-53600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>269000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-55800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-39000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-598600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-46600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-39500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-129400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-156700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-34700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-136600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-115100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-119400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-451000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-230400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>491900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-536800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-189800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-121600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>632100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-285300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-96200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-250000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>27800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-128600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-68200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>83700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-129100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>9900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>15900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-12600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-48100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-276600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-112300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>237400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-321300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>511300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-39500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-75400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>94800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E7" s="2">
         <v>44555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44464</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3179000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3330500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3178300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2967200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2925000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3165700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2840100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1684400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2428900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2668900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2508800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2447800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2360300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2472600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2355600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2316000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2273500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3318100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3161100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3059500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2922900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3120900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2206000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2351000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2266200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2077500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2034100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2306100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2085900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1230100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1682900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1858300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1747600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1680400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1608600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1721600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1633200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1597700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1554300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2417100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2325000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2220300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2100000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2261400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E10" s="3">
         <v>979500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>912100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>889700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>890900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>859600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>754200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>454300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>746000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>810600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>761200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>767400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>751700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>751000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>722400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>718300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>719200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>901000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>836100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>839200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>822900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>859500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1016,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,62 +1162,65 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>4600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>54700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>54300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2700</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1211,36 +1231,39 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>16100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>47000</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2935000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3130000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2967500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2756900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2695000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2984500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2652500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1691800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2255000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2472600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2321600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2285500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2187800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2314600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2232300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2158900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2111200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3076900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2947500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2848800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2729000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2907000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E18" s="3">
         <v>200500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>210800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>210300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>230000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>181200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>187600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>173900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>196300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>187200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>162300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>172500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>158000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>123300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>157100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>162300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>241200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>213600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>210700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>193900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>213900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,363 +1513,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>3300</v>
       </c>
       <c r="R20" s="3">
         <v>3300</v>
       </c>
       <c r="S20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T20" s="3">
         <v>2700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E21" s="3">
         <v>259900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>264200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>262000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>281600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>226800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>235000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>41200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>223800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>247500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>237800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>213600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>217100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>197600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>162400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>195800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>296400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>266900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>263300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>243000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>260800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E22" s="3">
         <v>8200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E23" s="3">
         <v>193000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>206100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>205700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>225700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>169900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>177200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>169000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>189500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>178600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>151700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>160500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>139500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>106200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>143200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>148000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>228000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>204700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>203300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>186800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>207000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E24" s="3">
         <v>43400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>49300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>48000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>56700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>29000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>33900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>63300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>59300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>58300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>38600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>58900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E26" s="3">
         <v>149700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>156800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>157700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>169100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>140500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>148200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>131100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>147300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>136600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>115900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>121000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>107000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>89500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>109300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>111900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>164800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>145400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>145000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>148200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>148100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E27" s="3">
         <v>147200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>162300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>155700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>166000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>141900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>141700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>130500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>330600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>134900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>116800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>118400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>106100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>90800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>110600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>111500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>134400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>138000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>136100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>140700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>139200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,13 +2177,16 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2137,46 +2198,46 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>700</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-8600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>26900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>30700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>30600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>28700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2399,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-3300</v>
       </c>
       <c r="R32" s="3">
         <v>-3300</v>
       </c>
       <c r="S32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="T32" s="3">
         <v>-2700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E33" s="3">
         <v>147200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>162300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>155700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>166000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>142600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>141700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>130000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>329900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>140600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>114500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>109800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>133000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>121500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>141200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>140200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>138000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>136100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>140700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>139200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E35" s="3">
         <v>147200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>162300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>155700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>166000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>142600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>141700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>130000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>329900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>140600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>114500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>109800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>133000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>121500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>141200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>140200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>138000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>136100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>140700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>139200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E38" s="2">
         <v>44555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44464</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2832,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E41" s="3">
         <v>118000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>119100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>167200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>421200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>533500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>296100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>617400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>106100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>75300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>88100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>56900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>119700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>111300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>99200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>174700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>79900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>74700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>62900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>62400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,505 +2978,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1444000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1451800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1551900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1356900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1317500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1424800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1407700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1101200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1198700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1246200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1278900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1203900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1193100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1168800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1627600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1561100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1576400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1522800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1544600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1409100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1362800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1254100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1871000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1861100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1784100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1688200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1626200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1512500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1463400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1406700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1328400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1428800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1356900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1367500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1370400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1415500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1932900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1930200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2015100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1933800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1692300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1567200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1624000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1665800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E45" s="3">
         <v>413100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>457200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>529900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>482400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>432900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>464600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>605200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>474600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>445400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>404700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>452300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>457600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1534000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>513700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>459300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>430100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>454800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>465800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>412900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>342600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>360500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3830000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3844000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3912400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3742200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3570600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3791400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3869300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3409200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3619100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3226500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3115700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3108700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3109100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4175200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4194000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4061900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4120800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4086000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3782500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3463800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3392300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3342800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E47" s="3">
         <v>423900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>397800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>394700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>369200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>366400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>356400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>362600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>331600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>327900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>385700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>389600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>404000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>420400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>518400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>510500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>449700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>432000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>450800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>472900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>458000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>442800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E48" s="3">
         <v>691400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>685600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>659700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>655000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>630900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>584800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>547400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>543200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>561300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>551200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>551500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>563500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>314200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>374100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>368600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>377000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>375000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>361700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>351400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>336500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>333900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3501000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3521800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3425100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3327500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3185100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2983800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2999400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2999000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3025400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3035400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3044300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3062400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3068200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2457100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3303900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2868800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2967300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2971000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2891700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2809400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2657900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2640900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,8 +3644,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3569,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
@@ -3580,8 +3700,8 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3598,8 +3718,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8447000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8481100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8420800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8124100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7779900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7772500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7809900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7318100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7519200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7151100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7097100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7112300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7144900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8500500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8390300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7809800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7914900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7864000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7486700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7097500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6844600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6760400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,434 +3924,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>914000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1053900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1057100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>903900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>909600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1005700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1007000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>735000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>780900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>880300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>854700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>745600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>695200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>785800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1136100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1117900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1020700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1153000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1029100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>882700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>843800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1007200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E58" s="3">
         <v>61200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>69000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>81900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>178600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>183200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>617400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>612800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>491400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>133800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>217000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>251900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>309000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>959700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1157400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1191800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>968300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>758300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>649100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>594700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>690300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>503400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1137000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1191400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1175200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1107800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1034600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1094200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>979500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>959500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>933600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1024300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>837000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>827700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>874500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1473300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>936300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>843200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>867200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>917700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>758900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>752600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>751300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>810000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2144000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2306500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2301400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2093600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2122800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2283100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2603800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2307200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2205800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2038400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1908700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1825300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1878800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3218800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3229800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3152900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2856300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2829000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2437100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2229900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2285400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2320600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>773000</v>
+      </c>
+      <c r="E61" s="3">
         <v>811300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>705500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>706500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>506500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>515800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>515400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>515800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>865800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>622900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>872200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>973100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>973500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>980300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1000300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>985400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1000500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>907800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>907600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>807600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>708400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>715500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>693000</v>
+      </c>
+      <c r="E62" s="3">
         <v>686700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>695600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>713200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>701100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>661600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>603800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>594300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>569600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>572400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>573500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>580000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>591200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>539800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>461000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>455600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>476100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>470700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>384000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>378200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>336000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>315900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4855000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5056000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4962800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4763800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4421800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4424400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4654600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4327000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4544600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4153100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4267600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4285100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4347900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5539200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5417200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4896200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5012900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5052500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4475000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4171200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4057400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3967300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3759000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3595200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3594200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3465600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3493100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3454800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3314100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3172400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3183200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3116200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2957900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2900400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2859200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3208600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3191300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3123400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2998300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2940000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3164500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3135000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3068200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2981800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3592000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3425100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3458000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3360300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3358200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3348200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3155300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2991100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2974600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2998000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2829500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2827300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2796900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2961300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2973100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2913500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2902000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2811500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3011600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2926300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2787200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2793100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E80" s="2">
         <v>44555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44464</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E81" s="3">
         <v>147200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>162300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>155700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>166000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>142600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>141700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>130000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>329900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>140600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>114500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>109800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>133000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>121500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>141200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>140200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>138000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>136100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>140700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>139200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E83" s="3">
         <v>58700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>51600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>48700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>46900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>49100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>51500</v>
       </c>
       <c r="R83" s="3">
         <v>51500</v>
       </c>
       <c r="S83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="T83" s="3">
         <v>52100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>51800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>48700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>47800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>44700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>44000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E89" s="3">
         <v>276600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>211200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>158400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>63300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>349800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>249300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-90700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>90500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>292600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>232000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>163200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>294000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>173900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>287800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-70900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>238000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>131400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>228700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-52600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>264500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-51300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-198200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-137900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-117900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-223200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-53600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>269000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-55800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-39000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-598600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-71700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-39500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-129400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-156700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-34700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-136600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6777,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-78500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-115100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-119400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-451000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-230400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>491900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-536800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-189800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-121600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>632100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-285300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-96200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-250000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>27800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-128600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-68200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>83700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-129100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>9900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>15900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-12600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-276600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-112300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>237400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-321300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>511300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>30800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-39500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-75400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>94800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,345 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E7" s="2">
         <v>44646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44464</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44282</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3030000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3179000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3330500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3178300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2967200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2925000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3165700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2840100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1684400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2428900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2668900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2508800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2447800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2360300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2472600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2355600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2316000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2273500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3318100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3161100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3059500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2922900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3120900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2085000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2206000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2351000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2266200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2077500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2034100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2306100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2085900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1230100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1682900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1858300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1747600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1680400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1608600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1721600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1633200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1597700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1554300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2417100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2325000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2220300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2100000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2261400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E10" s="3">
         <v>973000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>979500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>912100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>889700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>890900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>859600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>754200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>454300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>746000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>810600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>761200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>767400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>751700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>751000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>722400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>718300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>719200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>901000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>836100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>839200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>822900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>859500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1030,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,8 +1105,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1182,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1174,56 +1194,56 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>54700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>54300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>17600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2700</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1234,21 +1254,24 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>16100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E15" s="3">
         <v>47000</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1265,8 +1288,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1313,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2810000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2935000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3130000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2967500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2756900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2695000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2984500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2652500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1691800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2255000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2472600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2321600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2285500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2187800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2314600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2232300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2158900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2111200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3076900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2947500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2848800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2729000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2907000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E18" s="3">
         <v>244000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>210800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>210300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>230000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>181200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>187600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>173900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>196300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>187200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>162300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>172500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>158000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>123300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>157100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>162300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>241200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>213600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>210700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>193900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>213900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,378 +1547,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
-      </c>
-      <c r="R20" s="3">
-        <v>3300</v>
       </c>
       <c r="S20" s="3">
         <v>3300</v>
       </c>
       <c r="T20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U20" s="3">
         <v>2700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E21" s="3">
         <v>301000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>259900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>264200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>262000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>281600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>226800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>235000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>41200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>223800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>247500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>237800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>213600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>217100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>197600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>162400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>195800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>296400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>266900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>263300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>243000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>260800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
         <v>7000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E23" s="3">
         <v>239000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>193000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>206100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>205700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>225700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>169900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>177200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>169000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>189500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>178600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>151700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>160500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>139500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>106200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>143200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>148000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>228000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>204700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>203300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>186800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>207000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E24" s="3">
         <v>57000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>43400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>49300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>48000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>56700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>29400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>29000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>39500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>32500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>33900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>63300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>59300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>58300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>38600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>58900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E26" s="3">
         <v>182000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>149700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>156800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>157700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>169100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>140500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>148200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>131100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>147300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>136600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>115900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>121000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>107000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>89500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>109300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>111900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>164800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>145400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>145000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>148200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>148100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E27" s="3">
         <v>181000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>147200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>162300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>155700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>166000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>141900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>141700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>130500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>330600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>134900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>116800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>118400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>106100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>90800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>110600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>111500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>134400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>138000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>136100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>140700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>139200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,16 +2238,19 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2201,46 +2262,46 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>700</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>5600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-2200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>26900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>30700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>30600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>28700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2254,8 +2315,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,156 +2469,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-3300</v>
       </c>
       <c r="S32" s="3">
         <v>-3300</v>
       </c>
       <c r="T32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="U32" s="3">
         <v>-2700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E33" s="3">
         <v>181000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>147200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>162300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>155700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>166000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>142600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>141700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>130000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>329900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>140600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>114500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>109800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>133000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>121500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>141200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>140200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>138000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>136100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>140700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>139200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E35" s="3">
         <v>181000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>147200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>162300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>155700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>166000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>142600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>141700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>130000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>329900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>140600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>114500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>109800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>133000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>121500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>141200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>140200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>138000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>136100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>140700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>139200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E38" s="2">
         <v>44646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44464</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44282</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,82 +2919,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E41" s="3">
         <v>126000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>118000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>119100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>167200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>421200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>533500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>296100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>617400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>106100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>75300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>84900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>88100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>56900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>119700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>111300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>99200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>174700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>79900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>74700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>62900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>62400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2981,526 +3071,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1409000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1444000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1451800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1551900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1356900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1317500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1424800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1407700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1101200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1198700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1246200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1278900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1203900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1193100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1168800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1627600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1561100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1576400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1522800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1544600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1409100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1362800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1254100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1823000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1871000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1861100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1784100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1688200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1626200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1512500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1463400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1406700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1328400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1428800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1356900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1367500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1370400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1415500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1932900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1930200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2015100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1933800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1692300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1567200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1624000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1665800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E45" s="3">
         <v>389000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>413100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>457200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>529900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>482400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>432900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>464600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>605200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>474600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>445400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>404700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>452300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>457600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1534000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>513700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>459300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>430100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>454800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>465800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>412900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>342600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>360500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3789000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3830000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3844000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3912400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3742200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3570600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3791400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3869300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3409200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3619100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3226500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3115700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3108700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3109100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4175200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4194000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4061900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4120800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4086000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3782500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3463800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3392300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3342800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E47" s="3">
         <v>427000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>423900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>397800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>394700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>369200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>366400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>356400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>362600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>331600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>327900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>385700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>389600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>404000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>420400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>518400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>510500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>449700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>432000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>450800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>472900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>458000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>442800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>683000</v>
+      </c>
+      <c r="E48" s="3">
         <v>689000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>691400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>685600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>659700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>655000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>630900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>584800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>547400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>543200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>561300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>551200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>551500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>563500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>314200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>374100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>368600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>377000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>375000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>361700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>351400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>336500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>333900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3436000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3501000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3521800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3425100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3327500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3185100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2983800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2999400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2999000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3025400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3035400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3044300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3062400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3068200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2457100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3303900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2868800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2967300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2971000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2891700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2809400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2657900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2640900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,8 +3764,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3692,10 +3812,10 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
@@ -3703,8 +3823,8 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3721,8 +3841,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8324000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8447000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8481100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8420800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8124100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7779900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7772500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7809900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7318100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7519200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7151100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7097100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7112300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7144900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8500500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8390300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7809800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7914900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7864000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7486700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7097500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6844600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6760400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,452 +4055,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E57" s="3">
         <v>914000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1053900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1057100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>903900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>909600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1005700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1007000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>735000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>780900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>880300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>854700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>745600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>695200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>785800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1136100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1117900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1020700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1153000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1029100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>882700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>843800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1007200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E58" s="3">
         <v>93000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>61200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>69000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>81900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>178600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>183200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>617400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>612800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>491400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>133800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>217000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>251900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>309000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>959700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1157400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1191800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>968300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>758300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>649100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>594700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>690300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>503400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1137000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1191400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1175200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1107800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1034600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1094200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>979500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>959500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>933600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1024300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>837000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>827700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>874500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1473300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>936300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>843200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>867200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>917700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>758900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>752600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>751300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>810000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2076000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2144000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2306500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2301400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2093600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2122800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2283100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2603800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2307200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2205800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2038400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1908700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1825300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1878800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3218800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3229800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3152900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2856300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2829000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2437100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2229900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2285400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2320600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>769000</v>
+      </c>
+      <c r="E61" s="3">
         <v>773000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>811300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>705500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>706500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>506500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>515800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>515400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>515800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>865800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>622900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>872200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>973100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>973500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>980300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1000300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>985400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1000500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>907800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>907600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>807600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>708400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>715500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E62" s="3">
         <v>693000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>686700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>695600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>713200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>701100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>661600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>603800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>594300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>569600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>572400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>573500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>580000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>591200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>539800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>461000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>455600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>476100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>470700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>384000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>378200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>336000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>315900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4730000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4855000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5056000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4962800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4763800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4421800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4424400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4654600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4327000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4544600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4153100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4267600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4285100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4347900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5539200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5417200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4896200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5012900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5052500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4475000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4171200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4057400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3967300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3834000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3759000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3595200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3594200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3465600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3493100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3454800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3314100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3172400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3183200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3116200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2957900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2900400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2859200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3208600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3191300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3123400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2998300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2940000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3164500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3135000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3068200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2981800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3594000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3592000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3425100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3458000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3360300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3358200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3348200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3155300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2991100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2974600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2998000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2829500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2827300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2796900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2961300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2973100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2913500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2902000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2811500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3011600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2926300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2787200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2793100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E80" s="2">
         <v>44646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44464</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44282</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E81" s="3">
         <v>181000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>147200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>162300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>155700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>166000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>142600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>141700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>130000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>329900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>140600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>114500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>109800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>133000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>121500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>141200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>140200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>138000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>136100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>140700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>139200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E83" s="3">
         <v>55000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>58700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>51600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>48700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>46900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>49100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>52500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>51500</v>
       </c>
       <c r="S83" s="3">
         <v>51500</v>
       </c>
       <c r="T83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="U83" s="3">
         <v>52100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>51800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>48700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>47800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>44700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>44000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E89" s="3">
         <v>93000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>276600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>211200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>158400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>63300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>349800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>249300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-90700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>90500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>292600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>232000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>163200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>294000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>173900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>287800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-70900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>238000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>131400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>228700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-52600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>264500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-51300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-198200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-137900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-117900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-223200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-53600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>269000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-55800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-39000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-598600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-71700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-39500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-129400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-156700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-34700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-136600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,226 +7023,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-62000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-78500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-115100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-20000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-119400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-451000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-230400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>491900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-536800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-189800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-121600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>632100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-285300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-96200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-250000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>27800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-128600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-68200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>83700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-129100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>9900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>15900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E102" s="3">
         <v>8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-276600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-112300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>237400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-321300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>511300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>30800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-75400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>94800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,358 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E7" s="2">
         <v>44737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3067000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3030000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3179000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3330500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3178300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2967200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2925000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3165700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2840100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1684400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2428900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2668900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2508800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2447800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2360300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2472600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2355600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2316000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2273500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3318100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3161100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3059500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2922900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3120900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2085000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2206000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2351000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2266200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2077500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2034100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2306100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2085900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1230100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1682900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1858300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1747600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1680400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1608600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1721600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1633200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1597700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1554300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2417100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2325000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2220300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2100000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2261400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>914000</v>
+      </c>
+      <c r="E10" s="3">
         <v>945000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>973000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>979500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>912100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>889700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>890900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>859600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>754200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>454300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>746000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>810600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>761200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>767400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>751700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>751000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>722400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>718300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>719200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>901000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>836100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>839200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>822900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>859500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1044,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,68 +1202,71 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>54700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>54300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>17600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2700</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1257,13 +1277,16 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>16100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1271,10 +1294,10 @@
         <v>45000</v>
       </c>
       <c r="E15" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F15" s="3">
         <v>47000</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1291,8 +1314,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1339,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1391,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2856000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2810000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2935000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3130000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2967500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2756900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2695000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2984500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2652500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1691800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2255000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2472600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2321600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2285500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2187800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2314600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2232300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2158900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2111200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3076900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2947500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2848800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2729000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2907000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E18" s="3">
         <v>220000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>244000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>210800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>210300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>230000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>181200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>187600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>173900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>196300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>187200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>162300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>172500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>158000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>123300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>157100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>162300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>241200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>213600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>210700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>193900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>213900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,393 +1581,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>3300</v>
       </c>
       <c r="T20" s="3">
         <v>3300</v>
       </c>
       <c r="U20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V20" s="3">
         <v>2700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E21" s="3">
         <v>276000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>301000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>259900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>264200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>262000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>281600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>226800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>235000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>223800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>247500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>237800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>213600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>217100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>197600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>162400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>195800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>296400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>266900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>263300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>243000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>260800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E22" s="3">
         <v>9000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>11400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E23" s="3">
         <v>214000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>239000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>193000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>206100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>205700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>225700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>169900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>177200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>169000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>189500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>178600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>151700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>160500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>139500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>106200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>143200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>148000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>228000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>204700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>203300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>186800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>207000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E24" s="3">
         <v>52000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>57000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>43400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>49300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>48000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>56700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>29400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>39500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>33900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>63300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>59300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>58300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>38600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>58900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E26" s="3">
         <v>162000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>182000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>149700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>156800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>157700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>169100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>140500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>148200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>131100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>147300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>136600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>115900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>121000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>107000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>89500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>109300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>111900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>164800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>145400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>145000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>148200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>148100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E27" s="3">
         <v>160000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>181000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>147200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>162300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>155700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>166000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>141900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>141700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>130500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>330600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>134900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>116800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>118400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>106100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>90800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>110600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>111500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>134400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>138000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>136100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>140700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>139200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2252,8 +2313,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2265,46 +2326,46 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>5600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-8600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>26900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>30700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>30600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>28700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2318,8 +2379,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,162 +2539,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-3300</v>
       </c>
       <c r="T32" s="3">
         <v>-3300</v>
       </c>
       <c r="U32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="V32" s="3">
         <v>-2700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E33" s="3">
         <v>160000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>181000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>147200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>162300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>155700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>166000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>142600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>141700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>130000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>329900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>140600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>114500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>109800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>133000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>121500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>141200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>140200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>138000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>136100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>140700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>139200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E35" s="3">
         <v>160000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>181000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>147200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>162300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>155700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>166000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>142600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>141700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>130000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>329900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>140600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>114500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>109800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>133000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>121500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>141200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>140200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>138000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>136100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>140700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>139200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E38" s="2">
         <v>44737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,85 +3006,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E41" s="3">
         <v>108000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>126000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>118000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>119100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>167200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>144500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>421200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>533500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>296100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>617400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>106100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>75300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>84900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>88100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>56900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>119700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>111300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>99200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>174700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>79900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>74700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>62900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>62400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3074,547 +3164,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1409000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1444000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1451800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1551900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1356900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1317500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1424800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1407700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1101200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1198700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1246200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1278900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1203900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1193100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1168800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1627600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1561100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1576400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1522800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1544600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1409100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1362800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1254100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1818000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1823000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1871000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1861100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1784100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1688200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1626200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1512500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1463400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1406700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1328400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1428800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1356900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1367500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1370400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1415500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1932900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1930200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2015100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1933800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1692300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1567200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1624000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1665800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E45" s="3">
         <v>449000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>389000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>413100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>457200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>529900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>482400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>432900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>464600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>605200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>474600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>445400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>404700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>452300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>457600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1534000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>513700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>459300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>430100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>454800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>465800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>412900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>342600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>360500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3957000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3789000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3830000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3844000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3912400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3742200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3570600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3791400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3869300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3409200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3619100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3226500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3115700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3108700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3109100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4175200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4194000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4061900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4120800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4086000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3782500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3463800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3392300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3342800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E47" s="3">
         <v>416000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>427000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>423900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>397800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>394700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>369200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>366400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>356400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>362600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>331600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>327900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>385700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>389600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>404000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>420400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>518400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>510500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>449700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>432000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>450800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>472900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>458000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>442800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E48" s="3">
         <v>683000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>689000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>691400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>685600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>659700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>655000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>630900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>584800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>547400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>543200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>561300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>551200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>551500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>563500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>314200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>374100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>368600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>377000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>375000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>361700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>351400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>336500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>333900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3505000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3436000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3501000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3521800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3425100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3327500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3185100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2983800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2999400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2999000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3025400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3035400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3044300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3062400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3068200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2457100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3303900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2868800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2967300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2971000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2891700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2809400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2657900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2640900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,8 +3884,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3815,10 +3935,10 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
@@ -3826,8 +3946,8 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3844,8 +3964,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4044,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8534000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8324000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8447000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8481100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8420800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8124100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7779900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7772500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7809900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7318100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7519200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7151100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7097100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7112300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7144900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8500500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8390300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7809800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7914900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7864000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7486700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7097500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6844600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6760400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,470 +4186,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>957000</v>
+      </c>
+      <c r="E57" s="3">
         <v>901000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>914000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1053900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1057100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>903900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>909600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1005700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1007000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>735000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>780900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>880300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>854700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>745600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>695200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>785800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1136100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1117900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1020700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1153000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1029100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>882700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>843800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1007200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E58" s="3">
         <v>89000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>93000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>61200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>69000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>81900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>178600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>183200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>617400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>612800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>491400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>133800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>217000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>251900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>309000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>959700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1157400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1191800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>968300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>758300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>649100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>594700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>690300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>503400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1078000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1086000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1137000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1191400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1175200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1107800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1034600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1094200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>979500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>959500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>933600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1024300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>837000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>827700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>874500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1473300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>936300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>843200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>867200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>917700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>758900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>752600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>751300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>810000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2146000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2076000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2144000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2306500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2301400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2093600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2122800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2283100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2603800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2307200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2205800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2038400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1908700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1825300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1878800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3218800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3229800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3152900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2856300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2829000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2437100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2229900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2285400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2320600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>934000</v>
+      </c>
+      <c r="E61" s="3">
         <v>769000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>773000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>811300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>705500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>706500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>506500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>515800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>515400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>515800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>865800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>622900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>872200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>973100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>973500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>980300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1000300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>985400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1000500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>907800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>907600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>807600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>708400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>715500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E62" s="3">
         <v>666000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>693000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>686700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>695600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>713200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>701100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>661600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>603800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>594300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>569600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>572400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>573500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>580000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>591200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>539800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>461000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>455600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>476100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>470700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>384000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>378200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>336000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>315900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4904,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4923000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4730000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4855000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5056000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4962800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4763800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4421800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4424400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4654600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4327000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4544600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4153100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4267600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4285100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4347900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5539200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5417200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4896200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5012900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5052500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4475000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4171200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4057400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3967300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5334,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3922000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3834000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3759000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3595200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3594200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3465600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3493100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3454800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3314100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3172400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3183200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3116200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2957900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2900400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2859200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3208600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3191300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3123400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2998300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2940000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3164500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3135000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3068200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2981800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5654,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3611000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3594000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3592000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3425100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3458000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3360300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3358200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3348200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3155300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2991100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2974600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2998000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2829500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2827300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2796900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2961300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2973100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2913500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2902000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2811500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3011600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2926300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2787200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2793100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E80" s="2">
         <v>44737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E81" s="3">
         <v>160000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>181000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>147200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>162300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>155700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>166000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>142600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>141700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>130000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>329900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>140600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>114500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>109800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>133000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>121500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>141200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>140200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>138000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>136100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>140700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>139200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,85 +6011,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E83" s="3">
         <v>53000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>55000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>58700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>51600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>46900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>49100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>51500</v>
       </c>
       <c r="T83" s="3">
         <v>51500</v>
       </c>
       <c r="U83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="V83" s="3">
         <v>52100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>51800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>48700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>47800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>44700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>44000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E89" s="3">
         <v>157000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>93000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>276600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>211200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>158400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>63300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>349800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>249300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-90700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>90500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>292600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>232000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>163200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>294000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>173900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>287800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-70900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>238000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>131400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>228700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-52600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>264500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,8 +6601,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6390,76 +6611,79 @@
         <v>-24000</v>
       </c>
       <c r="E91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-51300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6839,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-198200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-137900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-117900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-223200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-53600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>269000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-598600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-46600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-71700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-39500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-35200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-129400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-156700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-34700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-136600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6795,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,235 +7269,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-133000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-62000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-78500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-115100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-20000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-119400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-451000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-230400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>491900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-536800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-189800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-121600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>632100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-285300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-96200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-250000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>27800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-128600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-68200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>83700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-129100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>9900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>13800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-48100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-276600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-112300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>237400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-321300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>511300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>30800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>31200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-39500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-75400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>94800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,370 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3371000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3067000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3030000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3179000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3330500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3178300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2967200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2925000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3165700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2840100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1684400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2428900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2668900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2508800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2447800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2360300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2472600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2355600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2316000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2273500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3318100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3161100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3059500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2922900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3120900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2372000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2153000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2085000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2206000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2351000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2266200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2077500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2034100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2306100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2085900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1230100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1682900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1858300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1747600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1680400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1608600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1721600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1633200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1597700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1554300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2417100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2325000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2220300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2100000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2261400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>999000</v>
+      </c>
+      <c r="E10" s="3">
         <v>914000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>945000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>973000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>979500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>912100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>889700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>890900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>859600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>754200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>454300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>746000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>810600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>761200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>767400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>751700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>751000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>722400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>718300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>719200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>901000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>836100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>839200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>822900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>859500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1057,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1125,8 +1138,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,71 +1221,74 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>4600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>54700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>54300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>17600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2700</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1280,13 +1299,16 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>16100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1297,10 +1319,10 @@
         <v>45000</v>
       </c>
       <c r="F15" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G15" s="3">
         <v>47000</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1317,8 +1339,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1365,8 +1387,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,168 +1417,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3299000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2856000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2810000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2935000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3130000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2967500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2756900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2695000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2984500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2652500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1691800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2255000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2472600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2321600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2285500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2187800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2314600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2232300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2158900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2111200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3076900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2947500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2848800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2729000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2907000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E18" s="3">
         <v>211000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>220000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>244000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>210800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>210300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>230000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>181200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>187600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>173900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>196300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>187200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>162300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>172500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>158000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>123300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>157100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>162300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>241200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>213600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>210700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>193900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>213900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,408 +1614,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>3300</v>
       </c>
       <c r="U20" s="3">
         <v>3300</v>
       </c>
       <c r="V20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W20" s="3">
         <v>2700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E21" s="3">
         <v>268000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>276000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>301000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>259900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>264200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>262000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>281600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>226800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>235000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>223800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>247500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>237800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>213600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>217100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>197600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>162400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>195800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>296400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>266900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>263300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>243000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>260800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E22" s="3">
         <v>11000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>21400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>16600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>13400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>11400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>9900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E23" s="3">
         <v>205000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>214000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>239000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>193000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>206100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>205700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>225700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>169900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>177200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-16200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>169000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>189500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>178600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>151700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>160500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>139500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>106200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>143200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>148000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>228000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>204700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>203300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>186800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>207000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E24" s="3">
         <v>46000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>52000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>57000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>43400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>49300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>48000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>56700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>42000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>39500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>32500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>33900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>36100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>63300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>59300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>58300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>38600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>58900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,168 +2110,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E26" s="3">
         <v>159000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>162000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>182000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>149700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>156800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>157700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>169100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>140500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>148200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>131100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>147300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>136600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>115900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>121000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>107000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>89500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>109300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>111900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>164800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>145400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>145000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>148200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>148100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E27" s="3">
         <v>150000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>160000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>181000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>147200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>162300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>155700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>166000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>141900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>141700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>130500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>330600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>134900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>116800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>118400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>106100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>90800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>110600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>111500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>134400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>138000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>136100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>140700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>139200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,13 +2359,16 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2316,8 +2376,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2329,46 +2389,46 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>5600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-2200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-8600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>26900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>30700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>30600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>28700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2382,8 +2442,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,168 +2608,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-3300</v>
       </c>
       <c r="U32" s="3">
         <v>-3300</v>
       </c>
       <c r="V32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="W32" s="3">
         <v>-2700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E33" s="3">
         <v>150000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>160000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>181000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>147200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>162300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>155700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>166000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>142600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>141700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>130000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>329900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>140600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>114500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>109800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>133000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>121500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>141200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>140200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>138000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>136100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>140700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>139200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2857,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E35" s="3">
         <v>150000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>160000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>181000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>147200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>162300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>155700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>166000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>142600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>141700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>130000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>329900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>140600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>114500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>109800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>133000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>121500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>141200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>140200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>138000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>136100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>140700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>139200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,88 +3092,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E41" s="3">
         <v>123000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>108000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>126000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>118000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>119100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>167200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>144500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>421200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>533500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>296100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>617400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>106100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>75300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>84900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>88100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>56900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>119700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>111300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>99200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>174700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>79900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>74700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>62900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>62400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3167,568 +3256,592 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1442000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1507000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1409000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1444000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1451800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1551900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1356900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1317500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1424800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1407700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1101200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1198700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1246200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1278900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1203900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1193100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1168800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1627600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1561100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1576400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1522800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1544600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1409100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1362800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1254100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1963000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1818000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1823000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1871000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1861100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1784100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1688200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1626200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1512500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1463400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1406700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1328400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1428800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1356900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1367500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1370400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1415500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1932900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1930200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2015100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1933800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1692300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1567200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1624000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1665800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E45" s="3">
         <v>509000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>449000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>389000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>413100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>457200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>529900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>482400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>432900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>464600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>605200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>474600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>445400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>404700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>452300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>457600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1534000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>513700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>459300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>430100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>454800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>465800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>412900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>342600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>360500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3988000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3957000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3789000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3830000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3844000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3912400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3742200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3570600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3791400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3869300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3409200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3619100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3226500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3115700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3108700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3109100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4175200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4194000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4061900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4120800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4086000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3782500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3463800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3392300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3342800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E47" s="3">
         <v>399000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>416000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>427000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>423900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>397800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>394700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>369200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>366400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>356400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>362600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>331600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>327900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>385700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>389600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>404000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>420400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>518400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>510500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>449700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>432000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>450800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>472900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>458000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>442800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>667000</v>
+      </c>
+      <c r="E48" s="3">
         <v>673000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>683000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>689000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>691400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>685600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>659700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>655000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>630900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>584800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>547400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>543200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>561300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>551200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>551500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>563500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>314200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>374100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>368600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>377000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>375000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>361700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>351400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>336500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>333900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3480000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3505000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3436000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3501000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3521800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3425100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3327500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3185100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2983800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2999400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2999000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3025400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3035400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3044300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3062400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3068200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2457100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3303900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2868800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2967300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2971000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2891700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2809400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2657900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2640900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,8 +4003,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3938,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
@@ -3949,8 +4068,8 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3967,8 +4086,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4169,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8607000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8534000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8324000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8447000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8481100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8420800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8124100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7779900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7772500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7809900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7318100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7519200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7151100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7097100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7112300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7144900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8500500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8390300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7809800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7914900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7864000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7486700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7097500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6844600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6760400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,488 +4316,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1004000</v>
+      </c>
+      <c r="E57" s="3">
         <v>957000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>901000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>914000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1053900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1057100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>903900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>909600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1005700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1007000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>735000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>780900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>880300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>854700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>745600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>695200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>785800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1136100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1117900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1020700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1153000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1029100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>882700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>843800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1007200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E58" s="3">
         <v>111000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>89000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>93000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>61200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>69000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>81900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>178600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>183200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>617400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>612800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>491400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>133800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>217000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>251900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>309000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>959700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1157400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1191800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>968300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>758300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>649100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>594700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>690300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>503400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1111000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1078000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1086000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1137000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1191400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1175200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1107800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1034600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1094200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>979500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>959500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>933600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1024300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>837000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>827700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>874500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1473300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>936300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>843200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>867200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>917700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>758900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>752600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>751300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>810000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2224000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2146000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2076000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2144000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2306500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2301400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2093600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2122800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2283100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2603800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2307200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2205800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2038400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1908700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1825300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1878800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3218800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3229800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3152900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2856300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2829000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2437100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2229900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2285400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2320600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1040000</v>
+      </c>
+      <c r="E61" s="3">
         <v>934000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>769000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>773000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>811300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>705500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>706500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>506500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>515800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>515400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>515800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>865800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>622900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>872200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>973100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>973500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>980300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1000300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>985400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1000500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>907800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>907600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>807600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>708400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>715500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>672000</v>
+      </c>
+      <c r="E62" s="3">
         <v>646000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>666000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>693000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>686700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>695600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>713200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>701100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>661600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>603800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>594300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>569600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>572400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>573500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>580000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>591200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>539800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>461000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>455600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>476100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>470700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>384000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>378200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>336000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>315900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5061,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5161000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4923000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4730000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4855000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5056000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4962800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4763800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4421800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4424400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4654600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4327000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4544600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4153100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4267600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4285100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4347900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5539200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5417200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4896200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5012900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5052500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4475000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4171200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4057400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3967300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5507,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3678000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3922000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3834000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3759000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3595200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3594200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3465600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3493100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3454800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3314100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3172400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3183200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3116200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2957900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2900400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2859200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3208600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3191300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3123400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2998300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2940000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3164500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3135000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3068200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2981800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +5839,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3446000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3611000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3594000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3592000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3425100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3458000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3360300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3358200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3348200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3155300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2991100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2974600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2998000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2829500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2827300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2796900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2961300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2973100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2913500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2902000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2811500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3011600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2926300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2787200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2793100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6005,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E81" s="3">
         <v>150000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>160000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>181000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>147200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>162300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>155700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>166000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>142600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>141700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>130000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>329900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>140600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>114500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>109800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>133000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>121500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>141200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>140200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>138000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>136100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>140700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>139200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,8 +6209,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6021,79 +6219,82 @@
         <v>52000</v>
       </c>
       <c r="E83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="F83" s="3">
         <v>53000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>55000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>58700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>51600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>49000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>49100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>51500</v>
       </c>
       <c r="U83" s="3">
         <v>51500</v>
       </c>
       <c r="V83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="W83" s="3">
         <v>52100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>51800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>48700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>47800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>44700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>44000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6705,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E89" s="3">
         <v>98000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>157000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>93000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>276600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>211200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>158400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>63300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>349800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>249300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-90700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>90500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>292600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>232000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>163200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>294000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>173900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>287800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-70900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>238000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>131400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>228700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-52600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>264500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,88 +6821,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24000</v>
+        <v>-29000</v>
       </c>
       <c r="E91" s="3">
         <v>-24000</v>
       </c>
       <c r="F91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-18400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-51300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,88 +7068,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-152000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-198200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-137900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-117900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-223200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-53600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>269000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-39000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-598600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-46600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-71700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-39500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-35200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-129400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-156700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-34700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-136600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7032,8 +7265,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,244 +7514,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-194000</v>
+      </c>
+      <c r="E100" s="3">
         <v>74000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-133000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-62000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-78500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-115100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-20000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-119400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-451000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-230400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>491900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-536800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-189800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-121600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>632100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-285300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-96200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-250000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>27800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-128600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-68200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>83700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-129100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>13800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-12600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>15000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-276600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-112300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>237400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-321300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>511300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>30800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>31200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-39500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-75400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>94800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-13800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,383 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3060000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3371000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3067000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3030000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3179000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3330500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3178300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2967200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2925000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3165700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2840100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1684400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2428900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2668900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2508800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2447800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2360300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2472600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2355600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2316000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2273500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3318100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3161100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3059500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2922900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3120900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2372000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2153000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2085000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2206000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2351000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2266200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2077500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2034100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2306100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2085900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1230100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1682900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1858300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1747600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1680400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1608600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1721600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1633200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1597700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1554300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2417100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2325000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2220300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2100000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2261400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>966000</v>
+      </c>
+      <c r="E10" s="3">
         <v>999000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>914000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>945000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>973000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>979500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>912100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>889700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>890900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>859600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>754200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>454300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>746000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>810600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>761200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>767400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>751700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>751000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>722400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>718300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>719200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>901000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>836100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>839200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>822900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>859500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,8 +1071,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1141,8 +1155,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,74 +1241,77 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="3">
         <v>121000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>54700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>54300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>17600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2700</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1302,18 +1322,21 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>16100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="E15" s="3">
         <v>45000</v>
@@ -1322,10 +1345,10 @@
         <v>45000</v>
       </c>
       <c r="G15" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H15" s="3">
         <v>47000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1342,8 +1365,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1390,8 +1413,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,174 +1444,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2885000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3299000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2856000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2810000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2935000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3130000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2967500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2756900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2695000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2984500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2652500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1691800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2255000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2472600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2321600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2285500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2187800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2314600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2232300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2158900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2111200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3076900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2947500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2848800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2729000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2907000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E18" s="3">
         <v>72000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>211000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>220000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>244000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>210800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>210300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>230000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>181200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>187600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>173900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>196300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>187200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>162300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>172500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>158000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>123300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>157100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>162300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>241200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>213600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>210700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>193900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>213900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,423 +1648,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
-      </c>
-      <c r="U20" s="3">
-        <v>3300</v>
       </c>
       <c r="V20" s="3">
         <v>3300</v>
       </c>
       <c r="W20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X20" s="3">
         <v>2700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E21" s="3">
         <v>132000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>268000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>276000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>301000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>259900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>264200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>262000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>281600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>226800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>235000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>41200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>223800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>247500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>237800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>213600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>217100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>197600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>162400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>195800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>296400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>266900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>263300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>243000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>260800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E22" s="3">
         <v>17000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>20400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>17200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>16900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>16600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>13400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>12200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>11400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>9900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E23" s="3">
         <v>63000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>205000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>214000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>239000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>193000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>206100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>205700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>225700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>169900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>177200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-16200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>169000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>189500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>178600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>151700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>160500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>139500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>106200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>143200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>148000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>228000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>204700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>203300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>186800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>207000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E24" s="3">
         <v>15000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>52000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>57000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>43400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>49300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>48000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>56700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>42200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>39500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>32500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>16600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>33900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>36100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>63300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>59300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>58300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>38600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>58900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E26" s="3">
         <v>48000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>159000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>162000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>182000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>149700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>156800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>157700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>169100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>140500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>148200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>131100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>147300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>136600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>115900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>121000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>107000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>89500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>109300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>111900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>164800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>145400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>145000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>148200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>148100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E27" s="3">
         <v>47000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>150000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>160000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>181000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>147200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>162300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>155700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>166000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>141900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>141700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>130500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>330600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>134900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>116800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>118400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>106100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>90800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>110600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>111500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>134400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>138000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>136100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>140700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>139200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,16 +2420,19 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -2379,8 +2440,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2392,46 +2453,46 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>700</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>5600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-2200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-8600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>26900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>30700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>30600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>28700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,174 +2678,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-3300</v>
       </c>
       <c r="V32" s="3">
         <v>-3300</v>
       </c>
       <c r="W32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="X32" s="3">
         <v>-2700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E33" s="3">
         <v>47000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>150000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>160000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>181000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>147200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>162300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>155700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>166000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>142600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>141700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>130000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>329900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>140600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>114500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>109800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>133000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>121500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>141200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>140200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>138000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>136100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>140700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>139200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E35" s="3">
         <v>47000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>150000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>160000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>181000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>147200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>162300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>155700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>166000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>142600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>141700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>130000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>329900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>140600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>114500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>109800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>133000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>121500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>141200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>140200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>138000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>136100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>140700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>139200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,91 +3179,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E41" s="3">
         <v>117000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>123000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>108000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>126000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>118000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>119100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>167200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>421200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>533500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>296100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>617400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>106100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>75300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>84900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>88100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>56900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>119700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>111300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>99200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>174700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>79900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>74700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>62900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>62400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3259,589 +3349,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1470000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1442000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1507000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1409000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1444000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1451800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1551900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1356900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1317500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1424800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1407700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1101200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1198700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1246200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1278900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1203900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1193100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1168800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1627600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1561100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1576400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1522800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1544600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1409100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1362800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1254100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1918000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1963000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1818000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1823000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1871000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1861100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1784100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1688200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1626200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1512500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1463400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1406700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1328400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1428800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1356900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1367500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1370400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1415500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1932900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1930200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2015100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1933800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1692300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1567200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1624000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1665800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E45" s="3">
         <v>466000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>509000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>449000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>389000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>413100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>457200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>529900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>482400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>432900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>464600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>605200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>474600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>445400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>404700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>452300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>457600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1534000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>513700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>459300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>430100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>454800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>465800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>412900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>342600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>360500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3952000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3988000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3957000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3789000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3830000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3844000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3912400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3742200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3570600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3791400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3869300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3409200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3619100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3226500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3115700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3108700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3109100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4175200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4194000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4061900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4120800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4086000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3782500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3463800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3392300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3342800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E47" s="3">
         <v>472000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>399000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>416000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>427000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>423900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>397800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>394700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>369200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>366400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>356400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>362600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>331600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>327900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>385700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>389600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>404000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>420400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>518400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>510500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>449700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>432000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>450800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>472900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>458000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>442800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>676000</v>
+      </c>
+      <c r="E48" s="3">
         <v>667000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>673000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>683000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>689000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>691400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>685600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>659700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>655000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>630900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>584800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>547400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>543200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>561300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>551200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>551500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>563500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>314200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>374100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>368600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>377000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>375000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>361700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>351400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>336500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>333900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3465000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3480000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3505000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3436000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3501000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3521800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3425100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3327500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3185100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2983800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2999400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2999000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3025400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3035400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3044300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3062400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3068200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2457100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3303900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2868800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2967300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2971000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2891700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2809400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2657900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2640900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,8 +4123,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4060,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
@@ -4071,8 +4191,8 @@
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -4089,8 +4209,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,91 +4295,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8572000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8607000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8534000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8324000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8447000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8481100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8420800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8124100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7779900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7772500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7809900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7318100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7519200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7151100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7097100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7112300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7144900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8500500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8390300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7809800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7914900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7864000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7486700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7097500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6844600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6760400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,506 +4447,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>855000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1004000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>957000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>901000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>914000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1053900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1057100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>903900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>909600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1005700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1007000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>735000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>780900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>880300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>854700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>745600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>695200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>785800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1136100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1117900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1020700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1153000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1029100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>882700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>843800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1007200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E58" s="3">
         <v>109000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>111000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>89000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>93000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>61200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>69000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>81900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>178600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>183200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>617400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>612800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>491400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>133800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>217000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>251900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>309000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>959700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1157400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1191800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>968300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>758300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>649100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>594700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>690300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>503400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1026000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1111000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1078000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1086000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1137000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1191400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1175200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1107800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1034600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1094200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>979500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>959500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>933600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1024300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>837000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>827700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>874500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1473300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>936300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>843200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>867200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>917700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>758900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>752600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>751300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>810000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2172000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2224000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2146000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2076000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2144000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2306500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2301400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2093600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2122800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2283100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2603800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2307200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2205800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2038400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1908700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1825300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1878800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3218800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3229800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3152900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2856300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2829000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2437100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2229900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2285400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2320600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1040000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>934000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>769000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>773000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>811300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>705500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>706500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>506500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>515800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>515400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>515800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>865800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>622900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>872200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>973100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>973500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>980300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1000300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>985400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1000500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>907800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>907600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>807600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>708400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>715500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>682000</v>
+      </c>
+      <c r="E62" s="3">
         <v>672000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>646000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>666000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>693000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>686700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>695600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>713200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>701100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>661600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>603800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>594300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>569600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>572400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>573500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>580000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>591200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>539800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>461000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>455600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>476100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>470700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>384000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>378200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>336000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>315900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,91 +5219,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5161000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4923000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4730000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4855000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5056000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4962800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4763800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4421800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4424400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4654600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4327000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4544600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4153100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4267600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4285100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4347900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5539200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5417200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4896200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5012900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5052500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4475000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4171200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4057400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3967300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,91 +5681,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3684000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3678000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3922000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3834000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3759000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3595200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3594200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3465600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3493100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3454800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3314100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3172400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3183200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3116200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2957900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2900400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2859200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3208600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3191300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3123400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2998300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2940000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3164500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3135000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3068200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2981800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,91 +6025,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3472000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3446000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3611000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3594000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3592000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3425100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3458000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3360300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3358200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3348200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3155300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2991100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2974600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2998000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2829500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2827300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2796900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2961300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2973100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2913500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2902000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2811500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3011600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2926300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2787200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2793100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E81" s="3">
         <v>47000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>150000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>160000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>181000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>147200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>162300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>155700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>166000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>142600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>141700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>130000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>329900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>140600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>114500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>109800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>133000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>121500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>141200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>140200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>138000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>136100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>140700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>139200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,8 +6408,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6222,79 +6421,82 @@
         <v>52000</v>
       </c>
       <c r="F83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="G83" s="3">
         <v>53000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>55000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>58700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>51600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>49000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>48700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>46900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>49100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>40300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>51500</v>
       </c>
       <c r="V83" s="3">
         <v>51500</v>
       </c>
       <c r="W83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="X83" s="3">
         <v>52100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>51800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>48700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>47800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>44700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>44000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E89" s="3">
         <v>254000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>98000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>157000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>93000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>276600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>211200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>158400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>63300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>349800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>249300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-90700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>90500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>292600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>232000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>163200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>294000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>173900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>287800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-70900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>238000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>131400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>228700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-52600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>264500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,91 +7042,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-24000</v>
       </c>
       <c r="F91" s="3">
         <v>-24000</v>
       </c>
       <c r="G91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-26200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-18400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-19700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-51300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,91 +7298,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-152000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-198200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-137900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-117900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-223200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-53600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>269000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-55800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-39000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-598600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-46600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-71700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-39500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-35200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-129400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-156700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-34700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-136600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7268,8 +7502,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,253 +7760,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-194000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>74000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-133000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-62000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-78500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-115100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-20000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-119400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-451000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-230400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>491900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-536800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-189800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-121600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>632100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-285300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-96200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-250000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>27800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-128600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-68200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>83700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-129100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>13800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>8000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-12600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-276600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-112300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>237400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-321300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>511300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>30800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>31200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-39500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-75400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>94800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>11800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-13800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>12600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>HSIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,395 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3060000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3371000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3067000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3030000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3179000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3330500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3178300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2967200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2925000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3165700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2840100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1684400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2428900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2668900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2508800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2447800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2360300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2472600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2355600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2316000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2273500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3318100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3161100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3059500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2922900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3120900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2865100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2125000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2094000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2372000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2153000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2085000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2206000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2351000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2266200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2077500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2034100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2306100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2085900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1230100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1682900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1858300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1747600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1680400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1608600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1721600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1633200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1597700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1554300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2417100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2325000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2220300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2100000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2261400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2077500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>975000</v>
+      </c>
+      <c r="E10" s="3">
         <v>966000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>999000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>914000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>945000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>973000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>979500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>912100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>889700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>890900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>859600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>754200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>454300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>746000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>810600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>761200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>767400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>751700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>751000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>722400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>718300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>719200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>901000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>836100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>839200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>822900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>859500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>787600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,8 +1084,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1158,8 +1171,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,77 +1260,80 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E14" s="3">
         <v>30000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>121000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>54700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>54300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>17600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2700</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
@@ -1325,21 +1344,24 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>16100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E15" s="3">
         <v>44000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45000</v>
       </c>
       <c r="F15" s="3">
         <v>45000</v>
@@ -1348,10 +1370,10 @@
         <v>45000</v>
       </c>
       <c r="H15" s="3">
+        <v>45000</v>
+      </c>
+      <c r="I15" s="3">
         <v>47000</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1368,8 +1390,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1416,8 +1438,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1470,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2899000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2885000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3299000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2856000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2810000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2935000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3130000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2967500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2756900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2695000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2984500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2652500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1691800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2255000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2472600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2321600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2285500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2187800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2314600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2232300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2158900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2111200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3076900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2947500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2848800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2729000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2907000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2664400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E18" s="3">
         <v>175000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>72000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>211000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>220000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>244000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>210800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>210300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>230000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>181200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>187600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>173900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>196300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>187200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>162300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>172500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>158000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>123300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>157100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>162300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>241200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>213600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>210700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>193900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>213900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,438 +1681,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
-      </c>
-      <c r="V20" s="3">
-        <v>3300</v>
       </c>
       <c r="W20" s="3">
         <v>3300</v>
       </c>
       <c r="X20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Y20" s="3">
         <v>2700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>4300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E21" s="3">
         <v>229000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>132000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>268000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>276000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>301000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>259900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>264200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>262000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>281600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>226800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>235000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>41200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>223800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>247500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>237800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>213600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>217100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>197600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>162400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>195800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>296400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>266900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>263300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>243000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>260800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E22" s="3">
         <v>14000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>21400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>20400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>17200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>16900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>16600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>13400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>12200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>11400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>9900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E23" s="3">
         <v>163000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>63000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>205000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>214000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>239000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>193000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>206100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>205700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>225700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>169900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>177200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>169000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>189500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>178600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>151700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>160500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>139500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>106200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>143200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>148000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>228000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>204700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>203300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>186800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>207000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>196200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E24" s="3">
         <v>39000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>52000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>57000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>43400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>49300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>48000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>56700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>29000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>42000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>39500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>32500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>33900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>36100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>63300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>59300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>58300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>38600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>58900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>56600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,180 +2213,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E26" s="3">
         <v>124000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>48000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>159000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>162000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>182000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>149700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>156800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>157700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>169100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>140500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>148200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>131100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>147300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>136600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>115900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>121000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>107000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>89500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>109300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>111900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>164800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>145400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>145000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>148200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>148100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>139600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E27" s="3">
         <v>121000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>47000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>150000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>160000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>181000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>147200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>162300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>155700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>166000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>141900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>141700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>130500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>330600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>134900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>116800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>118400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>106100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>90800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>110600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>111500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>134400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>138000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>136100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>140700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>139200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,19 +2480,22 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2443,8 +2503,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2456,46 +2516,46 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>700</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>5600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-8600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>26900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>30700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>30600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>28700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-143000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2509,8 +2569,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,180 +2747,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-3300</v>
       </c>
       <c r="W32" s="3">
         <v>-3300</v>
       </c>
       <c r="X32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-4300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E33" s="3">
         <v>121000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>47000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>150000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>160000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>181000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>147200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>162300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>155700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>166000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>142600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>141700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>130000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>329900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>140600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>114500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>109800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>133000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>121500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>141200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>140200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>138000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>136100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>140700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>139200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,185 +3014,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E35" s="3">
         <v>121000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>47000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>150000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>160000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>181000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>147200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>162300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>155700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>166000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>142600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>141700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>130000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>329900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>140600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>114500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>109800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>133000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>121500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>141200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>140200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>138000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>136100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>140700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>139200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,94 +3265,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E41" s="3">
         <v>126000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>117000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>123000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>108000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>126000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>118000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>119100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>167200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>144500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>421200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>533500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>296100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>617400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>106100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>75300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>84900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>88100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>56900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>119700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>111300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>99200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>174700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>79900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>74700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>62900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>62400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3352,610 +3441,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1468000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1470000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1442000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1507000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1409000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1444000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1451800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1551900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1356900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1317500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1424800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1407700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1101200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1198700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1246200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1278900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1203900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1193100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1168800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1627600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1561100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1576400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1522800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1544600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1409100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1362800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1254100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1367600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1843000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1918000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1963000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1818000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1823000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1871000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1861100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1784100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1688200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1626200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1512500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1463400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1406700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1328400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1428800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1356900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1367500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1370400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1415500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1932900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1930200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2015100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1933800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1692300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1567200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1624000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1665800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1468300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>463000</v>
+      </c>
+      <c r="E45" s="3">
         <v>438000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>466000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>509000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>449000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>389000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>413100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>457200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>529900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>482400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>432900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>464600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>605200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>474600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>445400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>404700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>452300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>457600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1534000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>513700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>459300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>430100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>454800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>465800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>412900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>342600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>360500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>373800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3911000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3952000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3988000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3957000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3789000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3830000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3844000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3912400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3742200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3570600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3791400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3869300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3409200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3619100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3226500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3115700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3108700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3109100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4175200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4194000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4061900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4120800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4086000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3782500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3463800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3392300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3342800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3286000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>493000</v>
+      </c>
+      <c r="E47" s="3">
         <v>479000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>472000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>399000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>416000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>427000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>423900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>397800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>394700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>369200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>366400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>356400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>362600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>331600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>327900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>385700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>389600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>404000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>420400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>518400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>510500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>449700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>432000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>450800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>472900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>458000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>442800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>454700</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>729000</v>
+      </c>
+      <c r="E48" s="3">
         <v>676000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>667000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>673000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>683000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>689000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>691400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>685600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>659700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>655000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>630900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>584800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>547400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>543200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>561300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>551200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>551500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>563500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>314200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>374100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>368600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>377000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>375000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>361700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>351400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>336500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>333900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4013000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3465000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3480000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3505000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3436000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3501000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3521800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3425100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3327500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3185100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2983800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2999400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2999000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3025400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3035400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3044300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3062400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3068200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2457100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3303900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2868800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2967300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2971000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2891700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2809400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2657900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2640900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2568800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,8 +4242,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4183,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>1133700</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
@@ -4194,8 +4313,8 @@
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -4212,8 +4331,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4420,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9146000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8572000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8607000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8534000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8324000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8447000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8481100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8420800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8124100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7779900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7772500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7809900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7318100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7519200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7151100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7097100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7112300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7144900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8500500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8390300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7809800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7914900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7864000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7486700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7097500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6844600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6760400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>6633600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,524 +4577,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>817000</v>
+      </c>
+      <c r="E57" s="3">
         <v>855000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1004000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>957000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>901000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>914000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1053900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1057100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>903900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>909600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1005700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1007000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>735000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>780900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>880300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>854700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>745600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>695200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>785800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1136100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1117900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1020700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1153000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1029100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>882700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>843800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1007200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>931100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E58" s="3">
         <v>291000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>109000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>111000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>89000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>93000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>61200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>69000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>81900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>178600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>183200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>617400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>612800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>491400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>133800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>217000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>251900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>309000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>959700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1157400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1191800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>968300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>758300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>649100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>594700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>690300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>503400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>350600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1026000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1111000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1078000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1086000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1137000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1191400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1175200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1107800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1034600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1094200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>979500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>959500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>933600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1024300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>837000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>827700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>874500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1473300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>936300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>843200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>867200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>917700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>758900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>752600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>751300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>810000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>758000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2276000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2172000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2224000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2146000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2076000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2144000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2306500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2301400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2093600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2122800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2283100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2603800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2307200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2205800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2038400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1908700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1825300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1878800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3218800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3229800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3152900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2856300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2829000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2437100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2229900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2285400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2320600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2039700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1133000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1021000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1040000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>934000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>769000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>773000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>811300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>705500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>706500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>506500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>515800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>515400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>515800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>865800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>622900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>872200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>973100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>973500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>980300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1000300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>985400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1000500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>907800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>907600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>807600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>708400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>715500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E62" s="3">
         <v>682000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>672000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>646000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>666000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>693000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>686700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>695600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>713200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>701100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>661600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>603800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>594300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>569600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>572400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>573500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>580000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>591200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>539800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>461000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>455600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>476100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>470700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>384000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>378200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>336000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>315900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>401400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5376,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5586000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5100000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5161000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4923000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4730000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4855000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5056000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4962800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4763800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4421800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4424400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4654600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4327000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4544600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4153100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4267600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4285100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4347900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5539200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5417200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4896200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5012900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5052500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4475000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4171200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4057400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3967300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3738300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5854,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3769000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3684000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3678000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3922000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3834000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3759000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3595200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3594200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3465600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3493100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3454800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3314100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3172400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3183200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3116200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2957900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2900400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2859200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3208600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3191300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3123400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2998300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2940000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3164500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3135000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3068200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2981800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2996800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6210,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3560000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3472000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3446000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3611000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3594000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3592000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3425100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3458000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3360300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3358200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3348200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3155300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2991100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2974600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2998000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2829500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2827300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2796900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2961300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2973100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2913500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2902000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2811500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3011600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2926300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2787200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2793100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2895300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6388,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E81" s="3">
         <v>121000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>47000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>150000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>160000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>181000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>147200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>162300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>155700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>166000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>142600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>141700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>130000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>329900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>140600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>114500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>109800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>133000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>121500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>141200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>140200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>138000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>136100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>140700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>139200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,13 +6606,14 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52000</v>
+        <v>59000</v>
       </c>
       <c r="E83" s="3">
         <v>52000</v>
@@ -6424,79 +6622,82 @@
         <v>52000</v>
       </c>
       <c r="G83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="H83" s="3">
         <v>53000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>55000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>58700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>51600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>49000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>48700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>46900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>49100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>40300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>52500</v>
-      </c>
-      <c r="V83" s="3">
-        <v>51500</v>
       </c>
       <c r="W83" s="3">
         <v>51500</v>
       </c>
       <c r="X83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="Y83" s="3">
         <v>52100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>51800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>48700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>47800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>44700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>44000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7138,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E89" s="3">
         <v>27000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>254000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>98000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>157000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>93000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>276600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>211200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>158400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>63300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>349800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>249300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-90700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>90500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>292600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>232000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>163200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>294000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>173900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>287800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-70900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>238000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>131400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>228700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-52600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>264500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>178600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7262,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-24000</v>
       </c>
       <c r="G91" s="3">
         <v>-24000</v>
       </c>
       <c r="H91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-19000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-26200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-18400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-19700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-51300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-36700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7527,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-39000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-152000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-32000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-198200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-137900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-117900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-223200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-53600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>269000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-55800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-39000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-598600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-46600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-71700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-39500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-129400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-156700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-34700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-136600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-59400</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,8 +7651,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7505,8 +7738,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,262 +8005,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E100" s="3">
         <v>21000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-194000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>74000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-133000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-62000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-78500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-115100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-119400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-451000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-230400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>491900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-536800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-189800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-121600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>632100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-285300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-96200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-250000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>27800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-128600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-68200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>83700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-129100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-105800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>13800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>6900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>8000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>4100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-12600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E102" s="3">
         <v>9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-48100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-276600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-112300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>237400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-321300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>511300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>31200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-39500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-75400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>94800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>11800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-13800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>12600</v>
       </c>
     </row>
